--- a/Planning Report/application sprint planner sprint5 03.02.20.xlsx
+++ b/Planning Report/application sprint planner sprint5 03.02.20.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED4EE37-976B-4DE3-B5B8-9DA30520FA1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DD2EA7-4D7A-418E-9435-304057C9D8B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="138">
   <si>
     <t>Create a Gantt Chart in this worksheet.
 Enter title of this project in cell B1. 
@@ -495,6 +495,15 @@
   </si>
   <si>
     <t>Report writing break this</t>
+  </si>
+  <si>
+    <t>Cookie warnings</t>
+  </si>
+  <si>
+    <t>Invite</t>
+  </si>
+  <si>
+    <t>Accept notifcation disapear</t>
   </si>
 </sst>
 </file>
@@ -1456,6 +1465,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,15 +1500,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,6 +1556,40 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="98">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3202,40 +3245,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3505,7 +3514,7 @@
           <xdr:col>64</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3557,10 +3566,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -3840,8 +3849,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A114" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3910,39 +3919,39 @@
       <c r="D2" s="18"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="O2" s="74" t="s">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="O2" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
       <c r="X2" s="20"/>
-      <c r="Y2" s="66" t="s">
+      <c r="Y2" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
       <c r="AC2" s="20"/>
-      <c r="AD2" s="67" t="s">
+      <c r="AD2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
     </row>
     <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3953,25 +3962,25 @@
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="71">
+      <c r="F3" s="72"/>
+      <c r="G3" s="74">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>43773</v>
       </c>
-      <c r="H3" s="72"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="44">
         <v>26</v>
       </c>
@@ -4060,14 +4069,14 @@
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="46">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>43799</v>
@@ -27772,7 +27781,7 @@
     </row>
     <row r="121" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
-      <c r="B121" s="76"/>
+      <c r="B121" s="66"/>
       <c r="C121" s="53"/>
       <c r="D121" s="34"/>
       <c r="E121" s="34"/>
@@ -28327,12 +28336,12 @@
     </row>
     <row r="124" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
-      <c r="B124" s="76" t="s">
+      <c r="B124" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C124" s="77"/>
-      <c r="D124" s="78"/>
-      <c r="E124" s="78">
+      <c r="C124" s="67"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="68">
         <v>0.5</v>
       </c>
       <c r="F124" s="31"/>
@@ -28344,238 +28353,238 @@
       </c>
       <c r="I124" s="26"/>
       <c r="J124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ref="J124:AO124" ca="1" si="60">IF(AND($D146="Goal",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1),1,""))</f>
         <v/>
       </c>
       <c r="K124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",K$5&gt;=$G124,K$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",K$5&gt;=$G124,K$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="L124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",L$5&gt;=$G124,L$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",L$5&gt;=$G124,L$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="M124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",M$5&gt;=$G124,M$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",M$5&gt;=$G124,M$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="N124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",N$5&gt;=$G124,N$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",N$5&gt;=$G124,N$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="O124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",O$5&gt;=$G124,O$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",O$5&gt;=$G124,O$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="P124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",P$5&gt;=$G124,P$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",P$5&gt;=$G124,P$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Q124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",Q$5&gt;=$G124,Q$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",Q$5&gt;=$G124,Q$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="R124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",R$5&gt;=$G124,R$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",R$5&gt;=$G124,R$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="S124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",S$5&gt;=$G124,S$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",S$5&gt;=$G124,S$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="T124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",T$5&gt;=$G124,T$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",T$5&gt;=$G124,T$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="U124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",U$5&gt;=$G124,U$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",U$5&gt;=$G124,U$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="V124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",V$5&gt;=$G124,V$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",V$5&gt;=$G124,V$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="W124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",W$5&gt;=$G124,W$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",W$5&gt;=$G124,W$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="X124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",X$5&gt;=$G124,X$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",X$5&gt;=$G124,X$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Y124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",Y$5&gt;=$G124,Y$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",Y$5&gt;=$G124,Y$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="Z124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",Z$5&gt;=$G124,Z$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",Z$5&gt;=$G124,Z$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AA124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AA$5&gt;=$G124,AA$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AA$5&gt;=$G124,AA$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AB124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AB$5&gt;=$G124,AB$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AB$5&gt;=$G124,AB$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AC124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AC$5&gt;=$G124,AC$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AC$5&gt;=$G124,AC$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AD124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AD$5&gt;=$G124,AD$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AD$5&gt;=$G124,AD$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AE124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AE$5&gt;=$G124,AE$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AE$5&gt;=$G124,AE$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AF124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AF$5&gt;=$G124,AF$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AF$5&gt;=$G124,AF$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AG124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AG$5&gt;=$G124,AG$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AG$5&gt;=$G124,AG$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AH124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AH$5&gt;=$G124,AH$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AH$5&gt;=$G124,AH$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AI124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AI$5&gt;=$G124,AI$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AI$5&gt;=$G124,AI$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AJ124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AJ$5&gt;=$G124,AJ$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AJ$5&gt;=$G124,AJ$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AK124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AK$5&gt;=$G124,AK$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AK$5&gt;=$G124,AK$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AL124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AL$5&gt;=$G124,AL$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AL$5&gt;=$G124,AL$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AM124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AM$5&gt;=$G124,AM$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AM$5&gt;=$G124,AM$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AN124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AN$5&gt;=$G124,AN$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AN$5&gt;=$G124,AN$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AO124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AO$5&gt;=$G124,AO$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AO$5&gt;=$G124,AO$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="60"/>
         <v/>
       </c>
       <c r="AP124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AP$5&gt;=$G124,AP$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AP$5&gt;=$G124,AP$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ref="AP124:BM124" ca="1" si="61">IF(AND($D146="Goal",AP$5&gt;=$G124,AP$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AP$5&gt;=$G124,AP$5&lt;=$G124+$H124-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AQ$5&gt;=$G124,AQ$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AQ$5&gt;=$G124,AQ$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AR124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AR$5&gt;=$G124,AR$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AR$5&gt;=$G124,AR$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AS124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AS$5&gt;=$G124,AS$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AS$5&gt;=$G124,AS$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AT124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AT$5&gt;=$G124,AT$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AT$5&gt;=$G124,AT$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AU124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AU$5&gt;=$G124,AU$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AU$5&gt;=$G124,AU$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AV124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AV$5&gt;=$G124,AV$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AV$5&gt;=$G124,AV$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AW124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AW$5&gt;=$G124,AW$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AW$5&gt;=$G124,AW$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AX124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AX$5&gt;=$G124,AX$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AX$5&gt;=$G124,AX$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AY124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AY$5&gt;=$G124,AY$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AY$5&gt;=$G124,AY$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="AZ124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",AZ$5&gt;=$G124,AZ$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",AZ$5&gt;=$G124,AZ$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BA124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BA$5&gt;=$G124,BA$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BA$5&gt;=$G124,BA$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BB124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BB$5&gt;=$G124,BB$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BB$5&gt;=$G124,BB$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BC124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BC$5&gt;=$G124,BC$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BC$5&gt;=$G124,BC$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BD124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BD$5&gt;=$G124,BD$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BD$5&gt;=$G124,BD$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BE124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BE$5&gt;=$G124,BE$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BE$5&gt;=$G124,BE$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BF124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BF$5&gt;=$G124,BF$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BF$5&gt;=$G124,BF$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BG124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BG$5&gt;=$G124,BG$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BG$5&gt;=$G124,BG$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BH124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BH$5&gt;=$G124,BH$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BH$5&gt;=$G124,BH$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BI124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BI$5&gt;=$G124,BI$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BI$5&gt;=$G124,BI$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BJ124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BJ$5&gt;=$G124,BJ$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BJ$5&gt;=$G124,BJ$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BK124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BK$5&gt;=$G124,BK$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BK$5&gt;=$G124,BK$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BL124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BL$5&gt;=$G124,BL$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BL$5&gt;=$G124,BL$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
       <c r="BM124" s="38" t="str">
-        <f ca="1">IF(AND($D146="Goal",BM$5&gt;=$G124,BM$5&lt;=$G124+$H124-1),2,IF(AND($D146="Milestone",BM$5&gt;=$G124,BM$5&lt;=$G124+$H124-1),1,""))</f>
+        <f t="shared" ca="1" si="61"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
-      <c r="B125" s="76" t="s">
+      <c r="B125" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="C125" s="77"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="78">
+      <c r="C125" s="67"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="68">
         <v>23</v>
       </c>
       <c r="F125" s="31"/>
@@ -28587,238 +28596,238 @@
       </c>
       <c r="I125" s="26"/>
       <c r="J125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",J$5&gt;=$G125,J$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",J$5&gt;=$G125,J$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ref="J125:AO125" ca="1" si="62">IF(AND($D147="Goal",J$5&gt;=$G125,J$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",J$5&gt;=$G125,J$5&lt;=$G125+$H125-1),1,""))</f>
         <v/>
       </c>
       <c r="K125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",K$5&gt;=$G125,K$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",K$5&gt;=$G125,K$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="L125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",L$5&gt;=$G125,L$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",L$5&gt;=$G125,L$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="M125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",M$5&gt;=$G125,M$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",M$5&gt;=$G125,M$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="N125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",N$5&gt;=$G125,N$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",N$5&gt;=$G125,N$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="O125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",O$5&gt;=$G125,O$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",O$5&gt;=$G125,O$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="P125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",P$5&gt;=$G125,P$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",P$5&gt;=$G125,P$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="Q125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",Q$5&gt;=$G125,Q$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",Q$5&gt;=$G125,Q$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="R125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",R$5&gt;=$G125,R$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",R$5&gt;=$G125,R$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="S125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",S$5&gt;=$G125,S$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",S$5&gt;=$G125,S$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="T125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",T$5&gt;=$G125,T$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",T$5&gt;=$G125,T$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="U125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",U$5&gt;=$G125,U$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",U$5&gt;=$G125,U$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="V125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",V$5&gt;=$G125,V$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",V$5&gt;=$G125,V$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="W125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",W$5&gt;=$G125,W$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",W$5&gt;=$G125,W$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="X125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",X$5&gt;=$G125,X$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",X$5&gt;=$G125,X$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="Y125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",Y$5&gt;=$G125,Y$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",Y$5&gt;=$G125,Y$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="Z125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",Z$5&gt;=$G125,Z$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",Z$5&gt;=$G125,Z$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AA125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AA$5&gt;=$G125,AA$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AA$5&gt;=$G125,AA$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AB125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AB$5&gt;=$G125,AB$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AB$5&gt;=$G125,AB$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AC125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AC$5&gt;=$G125,AC$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AC$5&gt;=$G125,AC$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AD125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AD$5&gt;=$G125,AD$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AD$5&gt;=$G125,AD$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AE125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AE$5&gt;=$G125,AE$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AE$5&gt;=$G125,AE$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AF125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AF$5&gt;=$G125,AF$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AF$5&gt;=$G125,AF$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AG125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AG$5&gt;=$G125,AG$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AG$5&gt;=$G125,AG$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AH125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AH$5&gt;=$G125,AH$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AH$5&gt;=$G125,AH$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AI125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AI$5&gt;=$G125,AI$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AI$5&gt;=$G125,AI$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AJ125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AJ$5&gt;=$G125,AJ$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AJ$5&gt;=$G125,AJ$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AK125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AK$5&gt;=$G125,AK$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AK$5&gt;=$G125,AK$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AL125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AL$5&gt;=$G125,AL$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AL$5&gt;=$G125,AL$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AM125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AM$5&gt;=$G125,AM$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AM$5&gt;=$G125,AM$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AN125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AN$5&gt;=$G125,AN$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AN$5&gt;=$G125,AN$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AO125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AO$5&gt;=$G125,AO$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AO$5&gt;=$G125,AO$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="AP125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AP$5&gt;=$G125,AP$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AP$5&gt;=$G125,AP$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ref="AP125:BM125" ca="1" si="63">IF(AND($D147="Goal",AP$5&gt;=$G125,AP$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AP$5&gt;=$G125,AP$5&lt;=$G125+$H125-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AQ$5&gt;=$G125,AQ$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AQ$5&gt;=$G125,AQ$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AR125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AR$5&gt;=$G125,AR$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AR$5&gt;=$G125,AR$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AS125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AS$5&gt;=$G125,AS$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AS$5&gt;=$G125,AS$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AT125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AT$5&gt;=$G125,AT$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AT$5&gt;=$G125,AT$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AU125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AU$5&gt;=$G125,AU$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AU$5&gt;=$G125,AU$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AV125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AV$5&gt;=$G125,AV$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AV$5&gt;=$G125,AV$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AW125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AW$5&gt;=$G125,AW$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AW$5&gt;=$G125,AW$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AX125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AX$5&gt;=$G125,AX$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AX$5&gt;=$G125,AX$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AY125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AY$5&gt;=$G125,AY$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AY$5&gt;=$G125,AY$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="AZ125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",AZ$5&gt;=$G125,AZ$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",AZ$5&gt;=$G125,AZ$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BA125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BA$5&gt;=$G125,BA$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BA$5&gt;=$G125,BA$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BB125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BB$5&gt;=$G125,BB$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BB$5&gt;=$G125,BB$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BC125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BC$5&gt;=$G125,BC$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BC$5&gt;=$G125,BC$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BD125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BD$5&gt;=$G125,BD$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BD$5&gt;=$G125,BD$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BE125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BE$5&gt;=$G125,BE$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BE$5&gt;=$G125,BE$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BF125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BF$5&gt;=$G125,BF$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BF$5&gt;=$G125,BF$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BG125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BG$5&gt;=$G125,BG$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BG$5&gt;=$G125,BG$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BH125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BH$5&gt;=$G125,BH$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BH$5&gt;=$G125,BH$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BI125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BI$5&gt;=$G125,BI$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BI$5&gt;=$G125,BI$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BJ125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BJ$5&gt;=$G125,BJ$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BJ$5&gt;=$G125,BJ$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BK125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BK$5&gt;=$G125,BK$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BK$5&gt;=$G125,BK$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BL125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BL$5&gt;=$G125,BL$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BL$5&gt;=$G125,BL$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="BM125" s="38" t="str">
-        <f ca="1">IF(AND($D147="Goal",BM$5&gt;=$G125,BM$5&lt;=$G125+$H125-1),2,IF(AND($D147="Milestone",BM$5&gt;=$G125,BM$5&lt;=$G125+$H125-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
-      <c r="B126" s="76" t="s">
+      <c r="B126" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C126" s="77"/>
-      <c r="D126" s="78"/>
-      <c r="E126" s="78">
+      <c r="C126" s="67"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="68">
         <v>3</v>
       </c>
       <c r="F126" s="31"/>
@@ -28828,238 +28837,238 @@
       </c>
       <c r="I126" s="26"/>
       <c r="J126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",J$5&gt;=$G126,J$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",J$5&gt;=$G126,J$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ref="J126:AO126" ca="1" si="64">IF(AND($D148="Goal",J$5&gt;=$G126,J$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",J$5&gt;=$G126,J$5&lt;=$G126+$H126-1),1,""))</f>
         <v/>
       </c>
       <c r="K126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",K$5&gt;=$G126,K$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",K$5&gt;=$G126,K$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="L126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",L$5&gt;=$G126,L$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",L$5&gt;=$G126,L$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="M126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",M$5&gt;=$G126,M$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",M$5&gt;=$G126,M$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="N126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",N$5&gt;=$G126,N$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",N$5&gt;=$G126,N$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="O126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",O$5&gt;=$G126,O$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",O$5&gt;=$G126,O$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="P126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",P$5&gt;=$G126,P$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",P$5&gt;=$G126,P$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Q126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",Q$5&gt;=$G126,Q$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",Q$5&gt;=$G126,Q$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="R126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",R$5&gt;=$G126,R$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",R$5&gt;=$G126,R$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="S126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",S$5&gt;=$G126,S$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",S$5&gt;=$G126,S$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="T126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",T$5&gt;=$G126,T$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",T$5&gt;=$G126,T$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="U126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",U$5&gt;=$G126,U$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",U$5&gt;=$G126,U$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="V126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",V$5&gt;=$G126,V$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",V$5&gt;=$G126,V$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="W126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",W$5&gt;=$G126,W$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",W$5&gt;=$G126,W$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="X126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",X$5&gt;=$G126,X$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",X$5&gt;=$G126,X$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Y126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",Y$5&gt;=$G126,Y$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",Y$5&gt;=$G126,Y$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="Z126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",Z$5&gt;=$G126,Z$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",Z$5&gt;=$G126,Z$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AA126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AA$5&gt;=$G126,AA$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AA$5&gt;=$G126,AA$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AB126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AB$5&gt;=$G126,AB$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AB$5&gt;=$G126,AB$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AC126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AC$5&gt;=$G126,AC$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AC$5&gt;=$G126,AC$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AD126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AD$5&gt;=$G126,AD$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AD$5&gt;=$G126,AD$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AE126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AE$5&gt;=$G126,AE$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AE$5&gt;=$G126,AE$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AF126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AF$5&gt;=$G126,AF$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AF$5&gt;=$G126,AF$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AG126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AG$5&gt;=$G126,AG$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AG$5&gt;=$G126,AG$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AH126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AH$5&gt;=$G126,AH$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AH$5&gt;=$G126,AH$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AI126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AI$5&gt;=$G126,AI$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AI$5&gt;=$G126,AI$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AJ126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AJ$5&gt;=$G126,AJ$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AJ$5&gt;=$G126,AJ$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AK126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AK$5&gt;=$G126,AK$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AK$5&gt;=$G126,AK$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AL126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AL$5&gt;=$G126,AL$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AL$5&gt;=$G126,AL$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AM126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AM$5&gt;=$G126,AM$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AM$5&gt;=$G126,AM$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AN126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AN$5&gt;=$G126,AN$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AN$5&gt;=$G126,AN$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AO126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AO$5&gt;=$G126,AO$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AO$5&gt;=$G126,AO$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AP126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AP$5&gt;=$G126,AP$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AP$5&gt;=$G126,AP$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ref="AP126:BM126" ca="1" si="65">IF(AND($D148="Goal",AP$5&gt;=$G126,AP$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AP$5&gt;=$G126,AP$5&lt;=$G126+$H126-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AQ$5&gt;=$G126,AQ$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AQ$5&gt;=$G126,AQ$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AR126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AR$5&gt;=$G126,AR$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AR$5&gt;=$G126,AR$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AS126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AS$5&gt;=$G126,AS$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AS$5&gt;=$G126,AS$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AT126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AT$5&gt;=$G126,AT$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AT$5&gt;=$G126,AT$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AU126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AU$5&gt;=$G126,AU$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AU$5&gt;=$G126,AU$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AV126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AV$5&gt;=$G126,AV$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AV$5&gt;=$G126,AV$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AW126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AW$5&gt;=$G126,AW$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AW$5&gt;=$G126,AW$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AX126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AX$5&gt;=$G126,AX$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AX$5&gt;=$G126,AX$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AY126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AY$5&gt;=$G126,AY$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AY$5&gt;=$G126,AY$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AZ126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",AZ$5&gt;=$G126,AZ$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",AZ$5&gt;=$G126,AZ$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BA126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BA$5&gt;=$G126,BA$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BA$5&gt;=$G126,BA$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BB126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BB$5&gt;=$G126,BB$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BB$5&gt;=$G126,BB$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BC126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BC$5&gt;=$G126,BC$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BC$5&gt;=$G126,BC$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BD126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BD$5&gt;=$G126,BD$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BD$5&gt;=$G126,BD$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BE126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BE$5&gt;=$G126,BE$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BE$5&gt;=$G126,BE$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BF126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BF$5&gt;=$G126,BF$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BF$5&gt;=$G126,BF$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BG126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BG$5&gt;=$G126,BG$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BG$5&gt;=$G126,BG$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BH126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BH$5&gt;=$G126,BH$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BH$5&gt;=$G126,BH$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BI126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BI$5&gt;=$G126,BI$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BI$5&gt;=$G126,BI$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BJ126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BJ$5&gt;=$G126,BJ$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BJ$5&gt;=$G126,BJ$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BK126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BK$5&gt;=$G126,BK$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BK$5&gt;=$G126,BK$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BL126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BL$5&gt;=$G126,BL$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BL$5&gt;=$G126,BL$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="BM126" s="38" t="str">
-        <f ca="1">IF(AND($D148="Goal",BM$5&gt;=$G126,BM$5&lt;=$G126+$H126-1),2,IF(AND($D148="Milestone",BM$5&gt;=$G126,BM$5&lt;=$G126+$H126-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
-      <c r="B127" s="76" t="s">
+      <c r="B127" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C127" s="77"/>
-      <c r="D127" s="78"/>
-      <c r="E127" s="78">
+      <c r="C127" s="67"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="68">
         <v>4</v>
       </c>
       <c r="F127" s="31"/>
@@ -29069,468 +29078,472 @@
       </c>
       <c r="I127" s="26"/>
       <c r="J127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",J$5&gt;=$G127,J$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",J$5&gt;=$G127,J$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ref="J127:AO127" ca="1" si="66">IF(AND($D149="Goal",J$5&gt;=$G127,J$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",J$5&gt;=$G127,J$5&lt;=$G127+$H127-1),1,""))</f>
         <v/>
       </c>
       <c r="K127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",K$5&gt;=$G127,K$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",K$5&gt;=$G127,K$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="L127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",L$5&gt;=$G127,L$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",L$5&gt;=$G127,L$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="M127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",M$5&gt;=$G127,M$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",M$5&gt;=$G127,M$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="N127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",N$5&gt;=$G127,N$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",N$5&gt;=$G127,N$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="O127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",O$5&gt;=$G127,O$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",O$5&gt;=$G127,O$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="P127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",P$5&gt;=$G127,P$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",P$5&gt;=$G127,P$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="Q127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",Q$5&gt;=$G127,Q$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",Q$5&gt;=$G127,Q$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="R127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",R$5&gt;=$G127,R$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",R$5&gt;=$G127,R$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="S127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",S$5&gt;=$G127,S$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",S$5&gt;=$G127,S$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="T127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",T$5&gt;=$G127,T$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",T$5&gt;=$G127,T$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="U127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",U$5&gt;=$G127,U$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",U$5&gt;=$G127,U$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="V127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",V$5&gt;=$G127,V$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",V$5&gt;=$G127,V$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="W127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",W$5&gt;=$G127,W$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",W$5&gt;=$G127,W$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="X127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",X$5&gt;=$G127,X$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",X$5&gt;=$G127,X$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="Y127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",Y$5&gt;=$G127,Y$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",Y$5&gt;=$G127,Y$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="Z127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",Z$5&gt;=$G127,Z$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",Z$5&gt;=$G127,Z$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AA127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AA$5&gt;=$G127,AA$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AA$5&gt;=$G127,AA$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AB127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AB$5&gt;=$G127,AB$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AB$5&gt;=$G127,AB$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AC127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AC$5&gt;=$G127,AC$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AC$5&gt;=$G127,AC$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AD127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AD$5&gt;=$G127,AD$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AD$5&gt;=$G127,AD$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AE127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AE$5&gt;=$G127,AE$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AE$5&gt;=$G127,AE$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AF127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AF$5&gt;=$G127,AF$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AF$5&gt;=$G127,AF$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AG127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AG$5&gt;=$G127,AG$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AG$5&gt;=$G127,AG$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AH127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AH$5&gt;=$G127,AH$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AH$5&gt;=$G127,AH$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AI127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AI$5&gt;=$G127,AI$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AI$5&gt;=$G127,AI$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AJ127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AJ$5&gt;=$G127,AJ$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AJ$5&gt;=$G127,AJ$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AK127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AK$5&gt;=$G127,AK$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AK$5&gt;=$G127,AK$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AL127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AL$5&gt;=$G127,AL$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AL$5&gt;=$G127,AL$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AM127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AM$5&gt;=$G127,AM$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AM$5&gt;=$G127,AM$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AN127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AN$5&gt;=$G127,AN$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AN$5&gt;=$G127,AN$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AO127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AO$5&gt;=$G127,AO$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AO$5&gt;=$G127,AO$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AP127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AP$5&gt;=$G127,AP$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AP$5&gt;=$G127,AP$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ref="AP127:BM127" ca="1" si="67">IF(AND($D149="Goal",AP$5&gt;=$G127,AP$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AP$5&gt;=$G127,AP$5&lt;=$G127+$H127-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AQ$5&gt;=$G127,AQ$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AQ$5&gt;=$G127,AQ$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AR127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AR$5&gt;=$G127,AR$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AR$5&gt;=$G127,AR$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AS127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AS$5&gt;=$G127,AS$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AS$5&gt;=$G127,AS$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AT127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AT$5&gt;=$G127,AT$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AT$5&gt;=$G127,AT$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AU127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AU$5&gt;=$G127,AU$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AU$5&gt;=$G127,AU$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AV127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AV$5&gt;=$G127,AV$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AV$5&gt;=$G127,AV$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AW127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AW$5&gt;=$G127,AW$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AW$5&gt;=$G127,AW$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AX127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AX$5&gt;=$G127,AX$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AX$5&gt;=$G127,AX$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AY127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AY$5&gt;=$G127,AY$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AY$5&gt;=$G127,AY$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="AZ127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",AZ$5&gt;=$G127,AZ$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",AZ$5&gt;=$G127,AZ$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BA127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BA$5&gt;=$G127,BA$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BA$5&gt;=$G127,BA$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BB127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BB$5&gt;=$G127,BB$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BB$5&gt;=$G127,BB$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BC127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BC$5&gt;=$G127,BC$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BC$5&gt;=$G127,BC$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BD127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BD$5&gt;=$G127,BD$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BD$5&gt;=$G127,BD$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BE127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BE$5&gt;=$G127,BE$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BE$5&gt;=$G127,BE$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BF127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BF$5&gt;=$G127,BF$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BF$5&gt;=$G127,BF$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BG127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BG$5&gt;=$G127,BG$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BG$5&gt;=$G127,BG$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BH127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BH$5&gt;=$G127,BH$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BH$5&gt;=$G127,BH$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BI127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BI$5&gt;=$G127,BI$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BI$5&gt;=$G127,BI$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BJ127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BJ$5&gt;=$G127,BJ$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BJ$5&gt;=$G127,BJ$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BK127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BK$5&gt;=$G127,BK$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BK$5&gt;=$G127,BK$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BL127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BL$5&gt;=$G127,BL$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BL$5&gt;=$G127,BL$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BM127" s="38" t="str">
-        <f ca="1">IF(AND($D149="Goal",BM$5&gt;=$G127,BM$5&lt;=$G127+$H127-1),2,IF(AND($D149="Milestone",BM$5&gt;=$G127,BM$5&lt;=$G127+$H127-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
-      <c r="B128" s="76"/>
-      <c r="C128" s="77"/>
-      <c r="D128" s="78"/>
-      <c r="E128" s="78"/>
+      <c r="B128" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" s="67"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="68"/>
       <c r="F128" s="31"/>
       <c r="G128" s="32"/>
       <c r="H128" s="33"/>
       <c r="I128" s="26"/>
       <c r="J128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",J$5&gt;=$G128,J$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",J$5&gt;=$G128,J$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ref="J128:AO128" ca="1" si="68">IF(AND($D150="Goal",J$5&gt;=$G128,J$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",J$5&gt;=$G128,J$5&lt;=$G128+$H128-1),1,""))</f>
         <v/>
       </c>
       <c r="K128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",K$5&gt;=$G128,K$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",K$5&gt;=$G128,K$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="L128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",L$5&gt;=$G128,L$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",L$5&gt;=$G128,L$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="M128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",M$5&gt;=$G128,M$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",M$5&gt;=$G128,M$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="N128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",N$5&gt;=$G128,N$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",N$5&gt;=$G128,N$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="O128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",O$5&gt;=$G128,O$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",O$5&gt;=$G128,O$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="P128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",P$5&gt;=$G128,P$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",P$5&gt;=$G128,P$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="Q128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",Q$5&gt;=$G128,Q$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",Q$5&gt;=$G128,Q$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="R128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",R$5&gt;=$G128,R$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",R$5&gt;=$G128,R$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="S128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",S$5&gt;=$G128,S$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",S$5&gt;=$G128,S$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="T128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",T$5&gt;=$G128,T$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",T$5&gt;=$G128,T$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="U128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",U$5&gt;=$G128,U$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",U$5&gt;=$G128,U$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="V128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",V$5&gt;=$G128,V$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",V$5&gt;=$G128,V$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="W128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",W$5&gt;=$G128,W$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",W$5&gt;=$G128,W$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="X128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",X$5&gt;=$G128,X$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",X$5&gt;=$G128,X$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="Y128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",Y$5&gt;=$G128,Y$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",Y$5&gt;=$G128,Y$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="Z128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",Z$5&gt;=$G128,Z$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",Z$5&gt;=$G128,Z$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AA128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AA$5&gt;=$G128,AA$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AA$5&gt;=$G128,AA$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AB128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AB$5&gt;=$G128,AB$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AB$5&gt;=$G128,AB$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AC128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AC$5&gt;=$G128,AC$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AC$5&gt;=$G128,AC$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AD128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AD$5&gt;=$G128,AD$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AD$5&gt;=$G128,AD$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AE128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AE$5&gt;=$G128,AE$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AE$5&gt;=$G128,AE$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AF128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AF$5&gt;=$G128,AF$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AF$5&gt;=$G128,AF$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AG128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AG$5&gt;=$G128,AG$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AG$5&gt;=$G128,AG$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AH128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AH$5&gt;=$G128,AH$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AH$5&gt;=$G128,AH$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AI128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AI$5&gt;=$G128,AI$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AI$5&gt;=$G128,AI$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AJ128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AJ$5&gt;=$G128,AJ$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AJ$5&gt;=$G128,AJ$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AK128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AK$5&gt;=$G128,AK$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AK$5&gt;=$G128,AK$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AL128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AL$5&gt;=$G128,AL$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AL$5&gt;=$G128,AL$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AM128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AM$5&gt;=$G128,AM$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AM$5&gt;=$G128,AM$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AN128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AN$5&gt;=$G128,AN$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AN$5&gt;=$G128,AN$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AO128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AO$5&gt;=$G128,AO$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AO$5&gt;=$G128,AO$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="AP128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AP$5&gt;=$G128,AP$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AP$5&gt;=$G128,AP$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ref="AP128:BM128" ca="1" si="69">IF(AND($D150="Goal",AP$5&gt;=$G128,AP$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AP$5&gt;=$G128,AP$5&lt;=$G128+$H128-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AQ$5&gt;=$G128,AQ$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AQ$5&gt;=$G128,AQ$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="AR128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AR$5&gt;=$G128,AR$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AR$5&gt;=$G128,AR$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="AS128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AS$5&gt;=$G128,AS$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AS$5&gt;=$G128,AS$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="AT128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AT$5&gt;=$G128,AT$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AT$5&gt;=$G128,AT$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="AU128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AU$5&gt;=$G128,AU$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AU$5&gt;=$G128,AU$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="AV128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AV$5&gt;=$G128,AV$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AV$5&gt;=$G128,AV$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="AW128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AW$5&gt;=$G128,AW$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AW$5&gt;=$G128,AW$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="AX128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AX$5&gt;=$G128,AX$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AX$5&gt;=$G128,AX$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="AY128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AY$5&gt;=$G128,AY$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AY$5&gt;=$G128,AY$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="AZ128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",AZ$5&gt;=$G128,AZ$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",AZ$5&gt;=$G128,AZ$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BA128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BA$5&gt;=$G128,BA$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BA$5&gt;=$G128,BA$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BB128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BB$5&gt;=$G128,BB$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BB$5&gt;=$G128,BB$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BC128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BC$5&gt;=$G128,BC$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BC$5&gt;=$G128,BC$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BD128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BD$5&gt;=$G128,BD$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BD$5&gt;=$G128,BD$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BE128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BE$5&gt;=$G128,BE$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BE$5&gt;=$G128,BE$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BF128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BF$5&gt;=$G128,BF$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BF$5&gt;=$G128,BF$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BG128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BG$5&gt;=$G128,BG$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BG$5&gt;=$G128,BG$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BH128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BH$5&gt;=$G128,BH$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BH$5&gt;=$G128,BH$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BI128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BI$5&gt;=$G128,BI$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BI$5&gt;=$G128,BI$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BJ128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BJ$5&gt;=$G128,BJ$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BJ$5&gt;=$G128,BJ$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BK128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BK$5&gt;=$G128,BK$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BK$5&gt;=$G128,BK$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BL128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BL$5&gt;=$G128,BL$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BL$5&gt;=$G128,BL$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="BM128" s="38" t="str">
-        <f ca="1">IF(AND($D150="Goal",BM$5&gt;=$G128,BM$5&lt;=$G128+$H128-1),2,IF(AND($D150="Milestone",BM$5&gt;=$G128,BM$5&lt;=$G128+$H128-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
-      <c r="B129" s="55"/>
+      <c r="B129" s="55" t="s">
+        <v>137</v>
+      </c>
       <c r="C129" s="41"/>
       <c r="D129" s="34"/>
       <c r="E129" s="34"/>
@@ -29606,227 +29619,227 @@
       <c r="H130" s="33"/>
       <c r="I130" s="26"/>
       <c r="J130" s="38" t="str">
-        <f t="shared" ref="J130:S137" ca="1" si="60">IF(AND($D130="Goal",J$5&gt;=$G130,J$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",J$5&gt;=$G130,J$5&lt;=$G130+$H130-1),1,""))</f>
+        <f t="shared" ref="J130:S137" ca="1" si="70">IF(AND($D130="Goal",J$5&gt;=$G130,J$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",J$5&gt;=$G130,J$5&lt;=$G130+$H130-1),1,""))</f>
         <v/>
       </c>
       <c r="K130" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="L130" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="M130" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="N130" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="O130" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="P130" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Q130" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R130" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="S130" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="T130" s="38" t="str">
-        <f t="shared" ref="T130:AC137" ca="1" si="61">IF(AND($D130="Goal",T$5&gt;=$G130,T$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",T$5&gt;=$G130,T$5&lt;=$G130+$H130-1),1,""))</f>
+        <f t="shared" ref="T130:AC137" ca="1" si="71">IF(AND($D130="Goal",T$5&gt;=$G130,T$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",T$5&gt;=$G130,T$5&lt;=$G130+$H130-1),1,""))</f>
         <v/>
       </c>
       <c r="U130" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="V130" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="W130" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="X130" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Y130" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Z130" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AA130" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AB130" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AC130" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AD130" s="38" t="str">
-        <f t="shared" ref="AD130:AM137" ca="1" si="62">IF(AND($D130="Goal",AD$5&gt;=$G130,AD$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",AD$5&gt;=$G130,AD$5&lt;=$G130+$H130-1),1,""))</f>
+        <f t="shared" ref="AD130:AM137" ca="1" si="72">IF(AND($D130="Goal",AD$5&gt;=$G130,AD$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",AD$5&gt;=$G130,AD$5&lt;=$G130+$H130-1),1,""))</f>
         <v/>
       </c>
       <c r="AE130" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AF130" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AG130" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AH130" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AI130" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AJ130" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AK130" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AL130" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AM130" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AN130" s="38" t="str">
-        <f t="shared" ref="AN130:AW137" ca="1" si="63">IF(AND($D130="Goal",AN$5&gt;=$G130,AN$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",AN$5&gt;=$G130,AN$5&lt;=$G130+$H130-1),1,""))</f>
+        <f t="shared" ref="AN130:AW137" ca="1" si="73">IF(AND($D130="Goal",AN$5&gt;=$G130,AN$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",AN$5&gt;=$G130,AN$5&lt;=$G130+$H130-1),1,""))</f>
         <v/>
       </c>
       <c r="AO130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AP130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AQ130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AR130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AS130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AT130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AU130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AV130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AW130" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AX130" s="38" t="str">
-        <f t="shared" ref="AX130:BG137" ca="1" si="64">IF(AND($D130="Goal",AX$5&gt;=$G130,AX$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",AX$5&gt;=$G130,AX$5&lt;=$G130+$H130-1),1,""))</f>
+        <f t="shared" ref="AX130:BG137" ca="1" si="74">IF(AND($D130="Goal",AX$5&gt;=$G130,AX$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",AX$5&gt;=$G130,AX$5&lt;=$G130+$H130-1),1,""))</f>
         <v/>
       </c>
       <c r="AY130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AZ130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BA130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BB130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BC130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BD130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BE130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BF130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BG130" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BH130" s="38" t="str">
-        <f t="shared" ref="BH130:BM137" ca="1" si="65">IF(AND($D130="Goal",BH$5&gt;=$G130,BH$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",BH$5&gt;=$G130,BH$5&lt;=$G130+$H130-1),1,""))</f>
+        <f t="shared" ref="BH130:BM137" ca="1" si="75">IF(AND($D130="Goal",BH$5&gt;=$G130,BH$5&lt;=$G130+$H130-1),2,IF(AND($D130="Milestone",BH$5&gt;=$G130,BH$5&lt;=$G130+$H130-1),1,""))</f>
         <v/>
       </c>
       <c r="BI130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BJ130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BK130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BL130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BM130" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
     </row>
@@ -29849,227 +29862,227 @@
       </c>
       <c r="I131" s="26"/>
       <c r="J131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="K131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="L131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="M131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="N131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="O131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="P131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Q131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="S131" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="T131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="U131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="V131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="W131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="X131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Y131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Z131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AA131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AB131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AC131" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AD131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AE131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AF131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AG131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AH131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AI131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AJ131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AK131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AL131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AM131" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AN131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AO131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AP131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AQ131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AR131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AS131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AT131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AU131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AV131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AW131" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AX131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AY131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AZ131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BA131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BB131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BC131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BD131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BE131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BF131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BG131" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BH131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BI131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BJ131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BK131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BL131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BM131" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
     </row>
@@ -30090,227 +30103,227 @@
       </c>
       <c r="I132" s="26"/>
       <c r="J132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="K132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="L132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="M132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="N132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="O132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="P132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Q132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="S132" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="T132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="U132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="V132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="W132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="X132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Y132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Z132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AA132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AB132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AC132" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AD132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AE132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AF132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AG132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AH132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AI132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AJ132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AK132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AL132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AM132" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AN132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AO132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AP132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AQ132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AR132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AS132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AT132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AU132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AV132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AW132" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AX132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AY132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AZ132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BA132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BB132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BC132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BD132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BE132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BF132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BG132" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BH132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BI132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BJ132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BK132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BL132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BM132" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
     </row>
@@ -30331,227 +30344,227 @@
       </c>
       <c r="I133" s="26"/>
       <c r="J133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="K133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="L133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="M133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="N133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="O133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="P133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Q133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="S133" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="T133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="U133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="V133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="W133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="X133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Y133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Z133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AA133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AB133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AC133" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AD133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AE133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AF133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AG133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AH133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AI133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AJ133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AK133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AL133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AM133" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AN133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AO133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AP133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AQ133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AR133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AS133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AT133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AU133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AV133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AW133" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AX133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AY133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AZ133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BA133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BB133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BC133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BD133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BE133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BF133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BG133" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BH133" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BI133" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BJ133" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BK133" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BL133" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BM133" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
     </row>
@@ -30572,227 +30585,227 @@
       </c>
       <c r="I134" s="26"/>
       <c r="J134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="K134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="L134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="M134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="N134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="O134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="P134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Q134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="S134" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="T134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="U134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="V134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="W134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="X134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Y134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Z134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AA134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AB134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AC134" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AD134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AE134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AF134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AG134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AH134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AI134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AJ134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AK134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AL134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AM134" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AN134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AO134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AP134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AQ134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AR134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AS134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AT134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AU134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AV134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AW134" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AX134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AY134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AZ134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BA134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BB134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BC134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BD134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BE134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BF134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BG134" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BH134" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BI134" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BJ134" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BK134" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BL134" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BM134" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
     </row>
@@ -30813,227 +30826,227 @@
       </c>
       <c r="I135" s="26"/>
       <c r="J135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="K135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="L135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="M135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="N135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="O135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="P135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Q135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="S135" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="T135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="U135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="V135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="W135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="X135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Y135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Z135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AA135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AB135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AC135" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AD135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AE135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AF135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AG135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AH135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AI135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AJ135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AK135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AL135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AM135" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AN135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AO135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AP135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AQ135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AR135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AS135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AT135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AU135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AV135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AW135" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AX135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AY135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AZ135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BA135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BB135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BC135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BD135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BE135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BF135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BG135" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BH135" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BI135" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BJ135" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BK135" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BL135" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BM135" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
     </row>
@@ -31058,227 +31071,227 @@
       </c>
       <c r="I136" s="26"/>
       <c r="J136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="K136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="L136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="M136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="N136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="O136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="P136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Q136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="S136" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="T136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="U136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="V136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="W136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="X136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Y136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Z136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AA136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AB136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AC136" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AD136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AE136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AF136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AG136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AH136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AI136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AJ136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AK136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AL136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AM136" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AN136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AO136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AP136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AQ136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AR136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AS136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AT136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AU136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AV136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AW136" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AX136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AY136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AZ136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BA136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BB136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BC136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BD136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BE136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BF136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BG136" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BH136" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BI136" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BJ136" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BK136" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BL136" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BM136" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
     </row>
@@ -31303,227 +31316,227 @@
       </c>
       <c r="I137" s="26"/>
       <c r="J137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="K137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="L137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="M137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="N137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="O137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="P137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="Q137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="R137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="S137" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="T137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="U137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="V137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="W137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="X137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Y137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="Z137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AA137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AB137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AC137" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AD137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AE137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AF137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AG137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AH137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AI137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AJ137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AK137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AL137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AM137" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AN137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AO137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AP137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AQ137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AR137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AS137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AT137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AU137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AV137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AW137" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="AX137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AY137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="AZ137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BA137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BB137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BC137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BD137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BE137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BF137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BG137" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="74"/>
         <v/>
       </c>
       <c r="BH137" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BI137" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BJ137" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BK137" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BL137" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
       <c r="BM137" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="75"/>
         <v/>
       </c>
     </row>
@@ -31625,227 +31638,227 @@
       </c>
       <c r="I139" s="26"/>
       <c r="J139" s="38" t="str">
-        <f t="shared" ref="J139:AO139" ca="1" si="66">IF(AND($D139="Goal",J$5&gt;=$G139,J$5&lt;=$G139+$H139-1),2,IF(AND($D139="Milestone",J$5&gt;=$G139,J$5&lt;=$G139+$H139-1),1,""))</f>
+        <f t="shared" ref="J139:AO139" ca="1" si="76">IF(AND($D139="Goal",J$5&gt;=$G139,J$5&lt;=$G139+$H139-1),2,IF(AND($D139="Milestone",J$5&gt;=$G139,J$5&lt;=$G139+$H139-1),1,""))</f>
         <v/>
       </c>
       <c r="K139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="L139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="M139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="N139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="O139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="P139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="Q139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="R139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="S139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="T139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="U139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="V139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="W139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="X139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="Y139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="Z139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AA139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AB139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AC139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AD139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AE139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AF139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AG139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AH139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AI139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AJ139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AK139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AL139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AM139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AN139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AO139" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="76"/>
         <v/>
       </c>
       <c r="AP139" s="38" t="str">
-        <f t="shared" ref="AP139:BM139" ca="1" si="67">IF(AND($D139="Goal",AP$5&gt;=$G139,AP$5&lt;=$G139+$H139-1),2,IF(AND($D139="Milestone",AP$5&gt;=$G139,AP$5&lt;=$G139+$H139-1),1,""))</f>
+        <f t="shared" ref="AP139:BM139" ca="1" si="77">IF(AND($D139="Goal",AP$5&gt;=$G139,AP$5&lt;=$G139+$H139-1),2,IF(AND($D139="Milestone",AP$5&gt;=$G139,AP$5&lt;=$G139+$H139-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AR139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AS139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AT139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AU139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AV139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AW139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AX139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AY139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="AZ139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BA139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BB139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BC139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BD139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BE139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BF139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BG139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BH139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BI139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BJ139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BK139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BL139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
       <c r="BM139" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="77"/>
         <v/>
       </c>
     </row>
@@ -32248,227 +32261,227 @@
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="38" t="str">
-        <f t="shared" ref="J142:S143" ca="1" si="68">IF(AND($D142="Goal",J$5&gt;=$G142,J$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",J$5&gt;=$G142,J$5&lt;=$G142+$H142-1),1,""))</f>
+        <f t="shared" ref="J142:S143" ca="1" si="78">IF(AND($D142="Goal",J$5&gt;=$G142,J$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",J$5&gt;=$G142,J$5&lt;=$G142+$H142-1),1,""))</f>
         <v/>
       </c>
       <c r="K142" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L142" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="M142" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="N142" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="O142" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="P142" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="Q142" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="R142" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="S142" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="T142" s="38" t="str">
-        <f t="shared" ref="T142:AC143" ca="1" si="69">IF(AND($D142="Goal",T$5&gt;=$G142,T$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",T$5&gt;=$G142,T$5&lt;=$G142+$H142-1),1,""))</f>
+        <f t="shared" ref="T142:AC143" ca="1" si="79">IF(AND($D142="Goal",T$5&gt;=$G142,T$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",T$5&gt;=$G142,T$5&lt;=$G142+$H142-1),1,""))</f>
         <v/>
       </c>
       <c r="U142" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="V142" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="W142" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="X142" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Y142" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Z142" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AA142" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AB142" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AC142" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AD142" s="38" t="str">
-        <f t="shared" ref="AD142:AM143" ca="1" si="70">IF(AND($D142="Goal",AD$5&gt;=$G142,AD$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",AD$5&gt;=$G142,AD$5&lt;=$G142+$H142-1),1,""))</f>
+        <f t="shared" ref="AD142:AM143" ca="1" si="80">IF(AND($D142="Goal",AD$5&gt;=$G142,AD$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",AD$5&gt;=$G142,AD$5&lt;=$G142+$H142-1),1,""))</f>
         <v/>
       </c>
       <c r="AE142" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AF142" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AG142" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AH142" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AI142" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AJ142" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AK142" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AL142" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AM142" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AN142" s="38" t="str">
-        <f t="shared" ref="AN142:AW143" ca="1" si="71">IF(AND($D142="Goal",AN$5&gt;=$G142,AN$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",AN$5&gt;=$G142,AN$5&lt;=$G142+$H142-1),1,""))</f>
+        <f t="shared" ref="AN142:AW143" ca="1" si="81">IF(AND($D142="Goal",AN$5&gt;=$G142,AN$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",AN$5&gt;=$G142,AN$5&lt;=$G142+$H142-1),1,""))</f>
         <v/>
       </c>
       <c r="AO142" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AP142" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AQ142" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AR142" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AS142" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AT142" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AU142" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AV142" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AW142" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AX142" s="38" t="str">
-        <f t="shared" ref="AX142:BG143" ca="1" si="72">IF(AND($D142="Goal",AX$5&gt;=$G142,AX$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",AX$5&gt;=$G142,AX$5&lt;=$G142+$H142-1),1,""))</f>
+        <f t="shared" ref="AX142:BG143" ca="1" si="82">IF(AND($D142="Goal",AX$5&gt;=$G142,AX$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",AX$5&gt;=$G142,AX$5&lt;=$G142+$H142-1),1,""))</f>
         <v/>
       </c>
       <c r="AY142" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AZ142" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BA142" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BB142" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BC142" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BD142" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BE142" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BF142" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BG142" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BH142" s="38" t="str">
-        <f t="shared" ref="BH142:BM143" ca="1" si="73">IF(AND($D142="Goal",BH$5&gt;=$G142,BH$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",BH$5&gt;=$G142,BH$5&lt;=$G142+$H142-1),1,""))</f>
+        <f t="shared" ref="BH142:BM143" ca="1" si="83">IF(AND($D142="Goal",BH$5&gt;=$G142,BH$5&lt;=$G142+$H142-1),2,IF(AND($D142="Milestone",BH$5&gt;=$G142,BH$5&lt;=$G142+$H142-1),1,""))</f>
         <v/>
       </c>
       <c r="BI142" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BJ142" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BK142" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BL142" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BM142" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
     </row>
@@ -32493,227 +32506,227 @@
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="K143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="L143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="M143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="N143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="O143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="P143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="Q143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="R143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="S143" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="78"/>
         <v/>
       </c>
       <c r="T143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="U143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="V143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="W143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="X143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Y143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="Z143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AA143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AB143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AC143" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="79"/>
         <v/>
       </c>
       <c r="AD143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AE143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AF143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AG143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AH143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AI143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AJ143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AK143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AL143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AM143" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="80"/>
         <v/>
       </c>
       <c r="AN143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AO143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AP143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AQ143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AR143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AS143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AT143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AU143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AV143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AW143" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="81"/>
         <v/>
       </c>
       <c r="AX143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AY143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="AZ143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BA143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BB143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BC143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BD143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BE143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BF143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BG143" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="82"/>
         <v/>
       </c>
       <c r="BH143" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BI143" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BJ143" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BK143" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BL143" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
       <c r="BM143" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="83"/>
         <v/>
       </c>
     </row>
@@ -33355,227 +33368,227 @@
       <c r="H151" s="33"/>
       <c r="I151" s="26"/>
       <c r="J151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",J$5&gt;=$G151,J$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",J$5&gt;=$G151,J$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ref="J151:AO151" ca="1" si="84">IF(AND($D151="Goal",J$5&gt;=$G151,J$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",J$5&gt;=$G151,J$5&lt;=$G151+$H151-1),1,""))</f>
         <v/>
       </c>
       <c r="K151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",K$5&gt;=$G151,K$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",K$5&gt;=$G151,K$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="L151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",L$5&gt;=$G151,L$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",L$5&gt;=$G151,L$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="M151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",M$5&gt;=$G151,M$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",M$5&gt;=$G151,M$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="N151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",N$5&gt;=$G151,N$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",N$5&gt;=$G151,N$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="O151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",O$5&gt;=$G151,O$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",O$5&gt;=$G151,O$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="P151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",P$5&gt;=$G151,P$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",P$5&gt;=$G151,P$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="Q151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",Q$5&gt;=$G151,Q$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",Q$5&gt;=$G151,Q$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="R151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",R$5&gt;=$G151,R$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",R$5&gt;=$G151,R$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="S151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",S$5&gt;=$G151,S$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",S$5&gt;=$G151,S$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="T151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",T$5&gt;=$G151,T$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",T$5&gt;=$G151,T$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="U151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",U$5&gt;=$G151,U$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",U$5&gt;=$G151,U$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="V151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",V$5&gt;=$G151,V$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",V$5&gt;=$G151,V$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="W151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",W$5&gt;=$G151,W$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",W$5&gt;=$G151,W$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="X151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",X$5&gt;=$G151,X$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",X$5&gt;=$G151,X$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="Y151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",Y$5&gt;=$G151,Y$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",Y$5&gt;=$G151,Y$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="Z151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",Z$5&gt;=$G151,Z$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",Z$5&gt;=$G151,Z$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AA151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AA$5&gt;=$G151,AA$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AA$5&gt;=$G151,AA$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AB151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AB$5&gt;=$G151,AB$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AB$5&gt;=$G151,AB$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AC151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AC$5&gt;=$G151,AC$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AC$5&gt;=$G151,AC$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AD151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AD$5&gt;=$G151,AD$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AD$5&gt;=$G151,AD$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AE151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AE$5&gt;=$G151,AE$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AE$5&gt;=$G151,AE$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AF151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AF$5&gt;=$G151,AF$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AF$5&gt;=$G151,AF$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AG151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AG$5&gt;=$G151,AG$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AG$5&gt;=$G151,AG$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AH151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AH$5&gt;=$G151,AH$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AH$5&gt;=$G151,AH$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AI151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AI$5&gt;=$G151,AI$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AI$5&gt;=$G151,AI$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AJ151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AJ$5&gt;=$G151,AJ$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AJ$5&gt;=$G151,AJ$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AK151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AK$5&gt;=$G151,AK$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AK$5&gt;=$G151,AK$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AL151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AL$5&gt;=$G151,AL$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AL$5&gt;=$G151,AL$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AM151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AM$5&gt;=$G151,AM$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AM$5&gt;=$G151,AM$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AN151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AN$5&gt;=$G151,AN$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AN$5&gt;=$G151,AN$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AO151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AO$5&gt;=$G151,AO$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AO$5&gt;=$G151,AO$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="84"/>
         <v/>
       </c>
       <c r="AP151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AP$5&gt;=$G151,AP$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AP$5&gt;=$G151,AP$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ref="AP151:BM151" ca="1" si="85">IF(AND($D151="Goal",AP$5&gt;=$G151,AP$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AP$5&gt;=$G151,AP$5&lt;=$G151+$H151-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AQ$5&gt;=$G151,AQ$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AQ$5&gt;=$G151,AQ$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="AR151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AR$5&gt;=$G151,AR$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AR$5&gt;=$G151,AR$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="AS151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AS$5&gt;=$G151,AS$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AS$5&gt;=$G151,AS$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="AT151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AT$5&gt;=$G151,AT$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AT$5&gt;=$G151,AT$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="AU151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AU$5&gt;=$G151,AU$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AU$5&gt;=$G151,AU$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="AV151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AV$5&gt;=$G151,AV$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AV$5&gt;=$G151,AV$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="AW151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AW$5&gt;=$G151,AW$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AW$5&gt;=$G151,AW$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="AX151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AX$5&gt;=$G151,AX$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AX$5&gt;=$G151,AX$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="AY151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AY$5&gt;=$G151,AY$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AY$5&gt;=$G151,AY$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="AZ151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",AZ$5&gt;=$G151,AZ$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",AZ$5&gt;=$G151,AZ$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BA151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BA$5&gt;=$G151,BA$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BA$5&gt;=$G151,BA$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BB151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BB$5&gt;=$G151,BB$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BB$5&gt;=$G151,BB$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BC151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BC$5&gt;=$G151,BC$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BC$5&gt;=$G151,BC$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BD151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BD$5&gt;=$G151,BD$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BD$5&gt;=$G151,BD$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BE151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BE$5&gt;=$G151,BE$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BE$5&gt;=$G151,BE$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BF151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BF$5&gt;=$G151,BF$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BF$5&gt;=$G151,BF$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BG151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BG$5&gt;=$G151,BG$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BG$5&gt;=$G151,BG$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BH151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BH$5&gt;=$G151,BH$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BH$5&gt;=$G151,BH$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BI151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BI$5&gt;=$G151,BI$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BI$5&gt;=$G151,BI$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BJ151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BJ$5&gt;=$G151,BJ$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BJ$5&gt;=$G151,BJ$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BK151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BK$5&gt;=$G151,BK$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BK$5&gt;=$G151,BK$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BL151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BL$5&gt;=$G151,BL$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BL$5&gt;=$G151,BL$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
       <c r="BM151" s="38" t="str">
-        <f ca="1">IF(AND($D151="Goal",BM$5&gt;=$G151,BM$5&lt;=$G151+$H151-1),2,IF(AND($D151="Milestone",BM$5&gt;=$G151,BM$5&lt;=$G151+$H151-1),1,""))</f>
+        <f t="shared" ca="1" si="85"/>
         <v/>
       </c>
     </row>
@@ -33594,227 +33607,227 @@
       <c r="H152" s="33"/>
       <c r="I152" s="26"/>
       <c r="J152" s="38" t="str">
-        <f t="shared" ref="J152:Y159" ca="1" si="74">IF(AND($D152="Goal",J$5&gt;=$G152,J$5&lt;=$G152+$H152-1),2,IF(AND($D152="Milestone",J$5&gt;=$G152,J$5&lt;=$G152+$H152-1),1,""))</f>
+        <f t="shared" ref="J152:Y159" ca="1" si="86">IF(AND($D152="Goal",J$5&gt;=$G152,J$5&lt;=$G152+$H152-1),2,IF(AND($D152="Milestone",J$5&gt;=$G152,J$5&lt;=$G152+$H152-1),1,""))</f>
         <v/>
       </c>
       <c r="K152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="L152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="M152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="N152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="O152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="P152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Q152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="R152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="S152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="T152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="U152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="V152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="W152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="X152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Y152" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Z152" s="38" t="str">
-        <f t="shared" ref="Z152:AO159" ca="1" si="75">IF(AND($D152="Goal",Z$5&gt;=$G152,Z$5&lt;=$G152+$H152-1),2,IF(AND($D152="Milestone",Z$5&gt;=$G152,Z$5&lt;=$G152+$H152-1),1,""))</f>
+        <f t="shared" ref="Z152:AO159" ca="1" si="87">IF(AND($D152="Goal",Z$5&gt;=$G152,Z$5&lt;=$G152+$H152-1),2,IF(AND($D152="Milestone",Z$5&gt;=$G152,Z$5&lt;=$G152+$H152-1),1,""))</f>
         <v/>
       </c>
       <c r="AA152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AB152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AC152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AD152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AE152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AF152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AG152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AH152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AI152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AJ152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AK152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AL152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AM152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AN152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AO152" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AP152" s="38" t="str">
-        <f t="shared" ref="AP152:BE159" ca="1" si="76">IF(AND($D152="Goal",AP$5&gt;=$G152,AP$5&lt;=$G152+$H152-1),2,IF(AND($D152="Milestone",AP$5&gt;=$G152,AP$5&lt;=$G152+$H152-1),1,""))</f>
+        <f t="shared" ref="AP152:BE159" ca="1" si="88">IF(AND($D152="Goal",AP$5&gt;=$G152,AP$5&lt;=$G152+$H152-1),2,IF(AND($D152="Milestone",AP$5&gt;=$G152,AP$5&lt;=$G152+$H152-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AR152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AS152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AT152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AU152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AV152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AW152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AX152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AY152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AZ152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BA152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BB152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BC152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BD152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BE152" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BF152" s="38" t="str">
-        <f t="shared" ref="BF152:BM159" ca="1" si="77">IF(AND($D152="Goal",BF$5&gt;=$G152,BF$5&lt;=$G152+$H152-1),2,IF(AND($D152="Milestone",BF$5&gt;=$G152,BF$5&lt;=$G152+$H152-1),1,""))</f>
+        <f t="shared" ref="BF152:BM159" ca="1" si="89">IF(AND($D152="Goal",BF$5&gt;=$G152,BF$5&lt;=$G152+$H152-1),2,IF(AND($D152="Milestone",BF$5&gt;=$G152,BF$5&lt;=$G152+$H152-1),1,""))</f>
         <v/>
       </c>
       <c r="BG152" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BH152" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BI152" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BJ152" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BK152" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BL152" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BM152" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
     </row>
@@ -33831,227 +33844,227 @@
       <c r="H153" s="33"/>
       <c r="I153" s="26"/>
       <c r="J153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="K153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="L153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="M153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="N153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="O153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="P153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Q153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="R153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="S153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="T153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="U153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="V153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="W153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="X153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Y153" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Z153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AA153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AB153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AC153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AD153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AE153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AF153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AG153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AH153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AI153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AJ153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AK153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AL153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AM153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AN153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AO153" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AP153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AQ153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AR153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AS153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AT153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AU153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AV153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AW153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AX153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AY153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AZ153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BA153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BB153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BC153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BD153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BE153" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BF153" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BG153" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BH153" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BI153" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BJ153" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BK153" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BL153" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BM153" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
     </row>
@@ -34068,227 +34081,227 @@
       <c r="H154" s="33"/>
       <c r="I154" s="26"/>
       <c r="J154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="K154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="L154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="M154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="N154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="O154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="P154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Q154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="R154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="S154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="T154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="U154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="V154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="W154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="X154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Y154" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Z154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AA154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AB154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AC154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AD154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AE154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AF154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AG154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AH154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AI154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AJ154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AK154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AL154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AM154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AN154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AO154" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AP154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AQ154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AR154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AS154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AT154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AU154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AV154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AW154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AX154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AY154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AZ154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BA154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BB154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BC154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BD154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BE154" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BF154" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BG154" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BH154" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BI154" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BJ154" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BK154" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BL154" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BM154" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
     </row>
@@ -34305,227 +34318,227 @@
       <c r="H155" s="33"/>
       <c r="I155" s="26"/>
       <c r="J155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="K155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="L155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="M155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="N155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="O155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="P155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Q155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="R155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="S155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="T155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="U155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="V155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="W155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="X155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Y155" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Z155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AA155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AB155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AC155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AD155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AE155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AF155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AG155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AH155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AI155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AJ155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AK155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AL155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AM155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AN155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AO155" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AP155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AQ155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AR155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AS155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AT155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AU155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AV155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AW155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AX155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AY155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AZ155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BA155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BB155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BC155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BD155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BE155" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BF155" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BG155" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BH155" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BI155" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BJ155" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BK155" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BL155" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BM155" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
     </row>
@@ -34542,227 +34555,227 @@
       <c r="H156" s="33"/>
       <c r="I156" s="26"/>
       <c r="J156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="K156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="L156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="M156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="N156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="O156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="P156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Q156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="R156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="S156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="T156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="U156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="V156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="W156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="X156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Y156" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Z156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AA156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AB156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AC156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AD156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AE156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AF156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AG156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AH156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AI156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AJ156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AK156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AL156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AM156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AN156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AO156" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AP156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AQ156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AR156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AS156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AT156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AU156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AV156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AW156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AX156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AY156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AZ156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BA156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BB156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BC156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BD156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BE156" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BF156" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BG156" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BH156" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BI156" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BJ156" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BK156" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BL156" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BM156" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
     </row>
@@ -34779,227 +34792,227 @@
       <c r="H157" s="33"/>
       <c r="I157" s="26"/>
       <c r="J157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="K157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="L157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="M157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="N157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="O157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="P157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Q157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="R157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="S157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="T157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="U157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="V157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="W157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="X157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Y157" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Z157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AA157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AB157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AC157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AD157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AE157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AF157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AG157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AH157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AI157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AJ157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AK157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AL157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AM157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AN157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AO157" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AP157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AQ157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AR157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AS157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AT157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AU157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AV157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AW157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AX157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AY157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AZ157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BA157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BB157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BC157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BD157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BE157" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BF157" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BG157" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BH157" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BI157" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BJ157" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BK157" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BL157" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BM157" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
     </row>
@@ -35016,227 +35029,227 @@
       <c r="H158" s="33"/>
       <c r="I158" s="26"/>
       <c r="J158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="K158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="L158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="M158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="N158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="O158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="P158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Q158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="R158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="S158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="T158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="U158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="V158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="W158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="X158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Y158" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Z158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AA158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AB158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AC158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AD158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AE158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AF158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AG158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AH158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AI158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AJ158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AK158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AL158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AM158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AN158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AO158" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AP158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AQ158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AR158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AS158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AT158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AU158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AV158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AW158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AX158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AY158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AZ158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BA158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BB158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BC158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BD158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BE158" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BF158" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BG158" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BH158" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BI158" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BJ158" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BK158" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BL158" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BM158" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
     </row>
@@ -35253,233 +35266,235 @@
       <c r="H159" s="33"/>
       <c r="I159" s="26"/>
       <c r="J159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="K159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="L159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="M159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="N159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="O159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="P159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Q159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="R159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="S159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="T159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="U159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="V159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="W159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="X159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Y159" s="38" t="str">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="86"/>
         <v/>
       </c>
       <c r="Z159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AA159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AB159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AC159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AD159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AE159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AF159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AG159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AH159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AI159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AJ159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AK159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AL159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AM159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AN159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AO159" s="38" t="str">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="87"/>
         <v/>
       </c>
       <c r="AP159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AQ159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AR159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AS159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AT159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AU159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AV159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AW159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AX159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AY159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="AZ159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BA159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BB159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BC159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BD159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BE159" s="38" t="str">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="88"/>
         <v/>
       </c>
       <c r="BF159" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BG159" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BH159" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BI159" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BJ159" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BK159" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BL159" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
       <c r="BM159" s="38" t="str">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="89"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
-      <c r="B160" s="41"/>
+      <c r="B160" s="41" t="s">
+        <v>135</v>
+      </c>
       <c r="C160" s="41"/>
       <c r="D160" s="34"/>
       <c r="E160" s="34"/>
@@ -35488,227 +35503,227 @@
       <c r="H160" s="33"/>
       <c r="I160" s="26"/>
       <c r="J160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",J$5&gt;=$G160,J$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",J$5&gt;=$G160,J$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ref="J160:S162" ca="1" si="90">IF(AND($D160="Goal",J$5&gt;=$G160,J$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",J$5&gt;=$G160,J$5&lt;=$G160+$H160-1),1,""))</f>
         <v/>
       </c>
       <c r="K160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",K$5&gt;=$G160,K$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",K$5&gt;=$G160,K$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="L160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",L$5&gt;=$G160,L$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",L$5&gt;=$G160,L$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="M160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",M$5&gt;=$G160,M$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",M$5&gt;=$G160,M$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="N160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",N$5&gt;=$G160,N$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",N$5&gt;=$G160,N$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="O160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",O$5&gt;=$G160,O$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",O$5&gt;=$G160,O$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="P160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",P$5&gt;=$G160,P$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",P$5&gt;=$G160,P$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="Q160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",Q$5&gt;=$G160,Q$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",Q$5&gt;=$G160,Q$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="R160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",R$5&gt;=$G160,R$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",R$5&gt;=$G160,R$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="S160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",S$5&gt;=$G160,S$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",S$5&gt;=$G160,S$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="T160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",T$5&gt;=$G160,T$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",T$5&gt;=$G160,T$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ref="T160:AC162" ca="1" si="91">IF(AND($D160="Goal",T$5&gt;=$G160,T$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",T$5&gt;=$G160,T$5&lt;=$G160+$H160-1),1,""))</f>
         <v/>
       </c>
       <c r="U160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",U$5&gt;=$G160,U$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",U$5&gt;=$G160,U$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="V160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",V$5&gt;=$G160,V$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",V$5&gt;=$G160,V$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="W160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",W$5&gt;=$G160,W$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",W$5&gt;=$G160,W$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="X160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",X$5&gt;=$G160,X$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",X$5&gt;=$G160,X$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="Y160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",Y$5&gt;=$G160,Y$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",Y$5&gt;=$G160,Y$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="Z160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",Z$5&gt;=$G160,Z$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",Z$5&gt;=$G160,Z$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AA160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AA$5&gt;=$G160,AA$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AA$5&gt;=$G160,AA$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AB160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AB$5&gt;=$G160,AB$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AB$5&gt;=$G160,AB$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AC160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AC$5&gt;=$G160,AC$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AC$5&gt;=$G160,AC$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AD160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AD$5&gt;=$G160,AD$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AD$5&gt;=$G160,AD$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ref="AD160:AM162" ca="1" si="92">IF(AND($D160="Goal",AD$5&gt;=$G160,AD$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AD$5&gt;=$G160,AD$5&lt;=$G160+$H160-1),1,""))</f>
         <v/>
       </c>
       <c r="AE160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AE$5&gt;=$G160,AE$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AE$5&gt;=$G160,AE$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AF160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AF$5&gt;=$G160,AF$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AF$5&gt;=$G160,AF$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AG160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AG$5&gt;=$G160,AG$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AG$5&gt;=$G160,AG$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AH160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AH$5&gt;=$G160,AH$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AH$5&gt;=$G160,AH$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AI160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AI$5&gt;=$G160,AI$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AI$5&gt;=$G160,AI$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AJ160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AJ$5&gt;=$G160,AJ$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AJ$5&gt;=$G160,AJ$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AK160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AK$5&gt;=$G160,AK$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AK$5&gt;=$G160,AK$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AL160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AL$5&gt;=$G160,AL$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AL$5&gt;=$G160,AL$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AM160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AM$5&gt;=$G160,AM$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AM$5&gt;=$G160,AM$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AN160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AN$5&gt;=$G160,AN$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AN$5&gt;=$G160,AN$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ref="AN160:AW162" ca="1" si="93">IF(AND($D160="Goal",AN$5&gt;=$G160,AN$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AN$5&gt;=$G160,AN$5&lt;=$G160+$H160-1),1,""))</f>
         <v/>
       </c>
       <c r="AO160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AO$5&gt;=$G160,AO$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AO$5&gt;=$G160,AO$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AP160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AP$5&gt;=$G160,AP$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AP$5&gt;=$G160,AP$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AQ160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AQ$5&gt;=$G160,AQ$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AQ$5&gt;=$G160,AQ$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AR160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AR$5&gt;=$G160,AR$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AR$5&gt;=$G160,AR$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AS160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AS$5&gt;=$G160,AS$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AS$5&gt;=$G160,AS$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AT160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AT$5&gt;=$G160,AT$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AT$5&gt;=$G160,AT$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AU160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AU$5&gt;=$G160,AU$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AU$5&gt;=$G160,AU$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AV160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AV$5&gt;=$G160,AV$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AV$5&gt;=$G160,AV$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AW160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AW$5&gt;=$G160,AW$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AW$5&gt;=$G160,AW$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AX160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AX$5&gt;=$G160,AX$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AX$5&gt;=$G160,AX$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ref="AX160:BG162" ca="1" si="94">IF(AND($D160="Goal",AX$5&gt;=$G160,AX$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AX$5&gt;=$G160,AX$5&lt;=$G160+$H160-1),1,""))</f>
         <v/>
       </c>
       <c r="AY160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AY$5&gt;=$G160,AY$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AY$5&gt;=$G160,AY$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="AZ160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",AZ$5&gt;=$G160,AZ$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",AZ$5&gt;=$G160,AZ$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BA160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BA$5&gt;=$G160,BA$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BA$5&gt;=$G160,BA$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BB160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BB$5&gt;=$G160,BB$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BB$5&gt;=$G160,BB$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BC160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BC$5&gt;=$G160,BC$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BC$5&gt;=$G160,BC$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BD160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BD$5&gt;=$G160,BD$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BD$5&gt;=$G160,BD$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BE160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BE$5&gt;=$G160,BE$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BE$5&gt;=$G160,BE$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BF160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BF$5&gt;=$G160,BF$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BF$5&gt;=$G160,BF$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BG160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BG$5&gt;=$G160,BG$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BG$5&gt;=$G160,BG$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BH160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BH$5&gt;=$G160,BH$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BH$5&gt;=$G160,BH$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ref="BH160:BM162" ca="1" si="95">IF(AND($D160="Goal",BH$5&gt;=$G160,BH$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BH$5&gt;=$G160,BH$5&lt;=$G160+$H160-1),1,""))</f>
         <v/>
       </c>
       <c r="BI160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BI$5&gt;=$G160,BI$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BI$5&gt;=$G160,BI$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BJ160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BJ$5&gt;=$G160,BJ$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BJ$5&gt;=$G160,BJ$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BK160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BK$5&gt;=$G160,BK$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BK$5&gt;=$G160,BK$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BL160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BL$5&gt;=$G160,BL$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BL$5&gt;=$G160,BL$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BM160" s="38" t="str">
-        <f ca="1">IF(AND($D160="Goal",BM$5&gt;=$G160,BM$5&lt;=$G160+$H160-1),2,IF(AND($D160="Milestone",BM$5&gt;=$G160,BM$5&lt;=$G160+$H160-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
     </row>
@@ -35723,227 +35738,227 @@
       <c r="H161" s="33"/>
       <c r="I161" s="26"/>
       <c r="J161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",J$5&gt;=$G161,J$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",J$5&gt;=$G161,J$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="K161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",K$5&gt;=$G161,K$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",K$5&gt;=$G161,K$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="L161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",L$5&gt;=$G161,L$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",L$5&gt;=$G161,L$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="M161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",M$5&gt;=$G161,M$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",M$5&gt;=$G161,M$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="N161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",N$5&gt;=$G161,N$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",N$5&gt;=$G161,N$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="O161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",O$5&gt;=$G161,O$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",O$5&gt;=$G161,O$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="P161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",P$5&gt;=$G161,P$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",P$5&gt;=$G161,P$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="Q161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",Q$5&gt;=$G161,Q$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",Q$5&gt;=$G161,Q$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="R161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",R$5&gt;=$G161,R$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",R$5&gt;=$G161,R$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="S161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",S$5&gt;=$G161,S$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",S$5&gt;=$G161,S$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="T161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",T$5&gt;=$G161,T$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",T$5&gt;=$G161,T$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="U161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",U$5&gt;=$G161,U$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",U$5&gt;=$G161,U$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="V161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",V$5&gt;=$G161,V$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",V$5&gt;=$G161,V$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="W161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",W$5&gt;=$G161,W$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",W$5&gt;=$G161,W$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="X161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",X$5&gt;=$G161,X$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",X$5&gt;=$G161,X$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="Y161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",Y$5&gt;=$G161,Y$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",Y$5&gt;=$G161,Y$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="Z161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",Z$5&gt;=$G161,Z$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",Z$5&gt;=$G161,Z$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AA161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AA$5&gt;=$G161,AA$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AA$5&gt;=$G161,AA$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AB161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AB$5&gt;=$G161,AB$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AB$5&gt;=$G161,AB$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AC161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AC$5&gt;=$G161,AC$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AC$5&gt;=$G161,AC$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AD161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AD$5&gt;=$G161,AD$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AD$5&gt;=$G161,AD$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AE161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AE$5&gt;=$G161,AE$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AE$5&gt;=$G161,AE$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AF161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AF$5&gt;=$G161,AF$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AF$5&gt;=$G161,AF$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AG161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AG$5&gt;=$G161,AG$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AG$5&gt;=$G161,AG$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AH161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AH$5&gt;=$G161,AH$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AH$5&gt;=$G161,AH$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AI161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AI$5&gt;=$G161,AI$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AI$5&gt;=$G161,AI$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AJ161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AJ$5&gt;=$G161,AJ$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AJ$5&gt;=$G161,AJ$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AK161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AK$5&gt;=$G161,AK$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AK$5&gt;=$G161,AK$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AL161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AL$5&gt;=$G161,AL$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AL$5&gt;=$G161,AL$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AM161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AM$5&gt;=$G161,AM$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AM$5&gt;=$G161,AM$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AN161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AN$5&gt;=$G161,AN$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AN$5&gt;=$G161,AN$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AO161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AO$5&gt;=$G161,AO$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AO$5&gt;=$G161,AO$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AP161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AP$5&gt;=$G161,AP$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AP$5&gt;=$G161,AP$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AQ161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AQ$5&gt;=$G161,AQ$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AQ$5&gt;=$G161,AQ$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AR161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AR$5&gt;=$G161,AR$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AR$5&gt;=$G161,AR$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AS161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AS$5&gt;=$G161,AS$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AS$5&gt;=$G161,AS$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AT161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AT$5&gt;=$G161,AT$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AT$5&gt;=$G161,AT$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AU161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AU$5&gt;=$G161,AU$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AU$5&gt;=$G161,AU$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AV161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AV$5&gt;=$G161,AV$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AV$5&gt;=$G161,AV$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AW161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AW$5&gt;=$G161,AW$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AW$5&gt;=$G161,AW$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AX161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AX$5&gt;=$G161,AX$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AX$5&gt;=$G161,AX$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="AY161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AY$5&gt;=$G161,AY$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AY$5&gt;=$G161,AY$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="AZ161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",AZ$5&gt;=$G161,AZ$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",AZ$5&gt;=$G161,AZ$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BA161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BA$5&gt;=$G161,BA$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BA$5&gt;=$G161,BA$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BB161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BB$5&gt;=$G161,BB$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BB$5&gt;=$G161,BB$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BC161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BC$5&gt;=$G161,BC$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BC$5&gt;=$G161,BC$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BD161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BD$5&gt;=$G161,BD$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BD$5&gt;=$G161,BD$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BE161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BE$5&gt;=$G161,BE$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BE$5&gt;=$G161,BE$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BF161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BF$5&gt;=$G161,BF$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BF$5&gt;=$G161,BF$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BG161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BG$5&gt;=$G161,BG$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BG$5&gt;=$G161,BG$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BH161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BH$5&gt;=$G161,BH$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BH$5&gt;=$G161,BH$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BI161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BI$5&gt;=$G161,BI$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BI$5&gt;=$G161,BI$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BJ161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BJ$5&gt;=$G161,BJ$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BJ$5&gt;=$G161,BJ$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BK161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BK$5&gt;=$G161,BK$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BK$5&gt;=$G161,BK$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BL161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BL$5&gt;=$G161,BL$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BL$5&gt;=$G161,BL$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BM161" s="38" t="str">
-        <f ca="1">IF(AND($D161="Goal",BM$5&gt;=$G161,BM$5&lt;=$G161+$H161-1),2,IF(AND($D161="Milestone",BM$5&gt;=$G161,BM$5&lt;=$G161+$H161-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
     </row>
@@ -35960,227 +35975,227 @@
       <c r="H162" s="33"/>
       <c r="I162" s="26"/>
       <c r="J162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",J$5&gt;=$G162,J$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",J$5&gt;=$G162,J$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="K162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",K$5&gt;=$G162,K$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",K$5&gt;=$G162,K$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="L162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",L$5&gt;=$G162,L$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",L$5&gt;=$G162,L$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="M162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",M$5&gt;=$G162,M$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",M$5&gt;=$G162,M$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="N162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",N$5&gt;=$G162,N$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",N$5&gt;=$G162,N$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="O162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",O$5&gt;=$G162,O$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",O$5&gt;=$G162,O$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="P162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",P$5&gt;=$G162,P$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",P$5&gt;=$G162,P$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="Q162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",Q$5&gt;=$G162,Q$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",Q$5&gt;=$G162,Q$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="R162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",R$5&gt;=$G162,R$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",R$5&gt;=$G162,R$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="S162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",S$5&gt;=$G162,S$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",S$5&gt;=$G162,S$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="90"/>
         <v/>
       </c>
       <c r="T162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",T$5&gt;=$G162,T$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",T$5&gt;=$G162,T$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="U162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",U$5&gt;=$G162,U$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",U$5&gt;=$G162,U$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="V162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",V$5&gt;=$G162,V$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",V$5&gt;=$G162,V$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="W162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",W$5&gt;=$G162,W$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",W$5&gt;=$G162,W$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="X162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",X$5&gt;=$G162,X$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",X$5&gt;=$G162,X$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="Y162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",Y$5&gt;=$G162,Y$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",Y$5&gt;=$G162,Y$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="Z162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",Z$5&gt;=$G162,Z$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",Z$5&gt;=$G162,Z$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AA162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AA$5&gt;=$G162,AA$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AA$5&gt;=$G162,AA$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AB162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AB$5&gt;=$G162,AB$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AB$5&gt;=$G162,AB$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AC162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AC$5&gt;=$G162,AC$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AC$5&gt;=$G162,AC$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="91"/>
         <v/>
       </c>
       <c r="AD162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AD$5&gt;=$G162,AD$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AD$5&gt;=$G162,AD$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AE162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AE$5&gt;=$G162,AE$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AE$5&gt;=$G162,AE$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AF162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AF$5&gt;=$G162,AF$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AF$5&gt;=$G162,AF$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AG162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AG$5&gt;=$G162,AG$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AG$5&gt;=$G162,AG$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AH162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AH$5&gt;=$G162,AH$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AH$5&gt;=$G162,AH$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AI162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AI$5&gt;=$G162,AI$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AI$5&gt;=$G162,AI$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AJ162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AJ$5&gt;=$G162,AJ$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AJ$5&gt;=$G162,AJ$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AK162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AK$5&gt;=$G162,AK$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AK$5&gt;=$G162,AK$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AL162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AL$5&gt;=$G162,AL$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AL$5&gt;=$G162,AL$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AM162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AM$5&gt;=$G162,AM$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AM$5&gt;=$G162,AM$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="92"/>
         <v/>
       </c>
       <c r="AN162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AN$5&gt;=$G162,AN$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AN$5&gt;=$G162,AN$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AO162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AO$5&gt;=$G162,AO$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AO$5&gt;=$G162,AO$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AP162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AP$5&gt;=$G162,AP$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AP$5&gt;=$G162,AP$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AQ162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AQ$5&gt;=$G162,AQ$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AQ$5&gt;=$G162,AQ$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AR162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AR$5&gt;=$G162,AR$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AR$5&gt;=$G162,AR$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AS162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AS$5&gt;=$G162,AS$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AS$5&gt;=$G162,AS$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AT162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AT$5&gt;=$G162,AT$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AT$5&gt;=$G162,AT$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AU162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AU$5&gt;=$G162,AU$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AU$5&gt;=$G162,AU$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AV162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AV$5&gt;=$G162,AV$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AV$5&gt;=$G162,AV$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AW162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AW$5&gt;=$G162,AW$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AW$5&gt;=$G162,AW$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="93"/>
         <v/>
       </c>
       <c r="AX162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AX$5&gt;=$G162,AX$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AX$5&gt;=$G162,AX$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="AY162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AY$5&gt;=$G162,AY$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AY$5&gt;=$G162,AY$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="AZ162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",AZ$5&gt;=$G162,AZ$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",AZ$5&gt;=$G162,AZ$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BA162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BA$5&gt;=$G162,BA$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BA$5&gt;=$G162,BA$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BB162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BB$5&gt;=$G162,BB$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BB$5&gt;=$G162,BB$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BC162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BC$5&gt;=$G162,BC$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BC$5&gt;=$G162,BC$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BD162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BD$5&gt;=$G162,BD$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BD$5&gt;=$G162,BD$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BE162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BE$5&gt;=$G162,BE$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BE$5&gt;=$G162,BE$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BF162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BF$5&gt;=$G162,BF$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BF$5&gt;=$G162,BF$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BG162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BG$5&gt;=$G162,BG$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BG$5&gt;=$G162,BG$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="94"/>
         <v/>
       </c>
       <c r="BH162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BH$5&gt;=$G162,BH$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BH$5&gt;=$G162,BH$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BI162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BI$5&gt;=$G162,BI$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BI$5&gt;=$G162,BI$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BJ162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BJ$5&gt;=$G162,BJ$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BJ$5&gt;=$G162,BJ$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BK162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BK$5&gt;=$G162,BK$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BK$5&gt;=$G162,BK$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BL162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BL$5&gt;=$G162,BL$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BL$5&gt;=$G162,BL$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
       <c r="BM162" s="38" t="str">
-        <f ca="1">IF(AND($D162="Goal",BM$5&gt;=$G162,BM$5&lt;=$G162+$H162-1),2,IF(AND($D162="Milestone",BM$5&gt;=$G162,BM$5&lt;=$G162+$H162-1),1,""))</f>
+        <f t="shared" ca="1" si="95"/>
         <v/>
       </c>
     </row>
@@ -36291,56 +36306,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BM8 J162:BM163 J130:BM130 J136:BM136 J74:BM75 J10:BM10 J22:BM58 J61:BM70 J72:BM72 J124:BM126 J78:BM121">
-    <cfRule type="expression" dxfId="81" priority="250">
+    <cfRule type="expression" dxfId="85" priority="250">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="80" priority="256">
+    <cfRule type="expression" dxfId="84" priority="256">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:BM4">
-    <cfRule type="expression" dxfId="79" priority="252">
+    <cfRule type="expression" dxfId="83" priority="252">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BM4">
-    <cfRule type="expression" dxfId="78" priority="251">
+    <cfRule type="expression" dxfId="82" priority="251">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM123 J129:BM145 J151:BM162">
-    <cfRule type="expression" dxfId="77" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="273" stopIfTrue="1">
       <formula>AND($D8="Low risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="292" stopIfTrue="1">
       <formula>AND($D8="High risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="310" stopIfTrue="1">
       <formula>AND($D8="On track",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="311" stopIfTrue="1">
       <formula>AND($D8="Med risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="312" stopIfTrue="1">
       <formula>AND(LEN($D8)=0,J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:BM163">
-    <cfRule type="expression" dxfId="72" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="320" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="321" stopIfTrue="1">
       <formula>AND(#REF!="High risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="322" stopIfTrue="1">
       <formula>AND(#REF!="On track",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="323" stopIfTrue="1">
       <formula>AND(#REF!="Med risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="324" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36359,24 +36374,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="67" priority="241">
+    <cfRule type="expression" dxfId="71" priority="241">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="66" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="243" stopIfTrue="1">
       <formula>AND($D9="Low risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="244" stopIfTrue="1">
       <formula>AND($D9="High risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="245" stopIfTrue="1">
       <formula>AND($D9="On track",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="246" stopIfTrue="1">
       <formula>AND($D9="Med risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="247" stopIfTrue="1">
       <formula>AND(LEN($D9)=0,J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36395,7 +36410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:BM77">
-    <cfRule type="expression" dxfId="61" priority="225">
+    <cfRule type="expression" dxfId="65" priority="225">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36414,7 +36429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:GC123">
-    <cfRule type="expression" dxfId="60" priority="216">
+    <cfRule type="expression" dxfId="64" priority="216">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36433,7 +36448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122:BM122">
-    <cfRule type="expression" dxfId="59" priority="209">
+    <cfRule type="expression" dxfId="63" priority="209">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36452,7 +36467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:BM60">
-    <cfRule type="expression" dxfId="58" priority="201">
+    <cfRule type="expression" dxfId="62" priority="201">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36471,7 +36486,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131:GC132 J134:GC136 J139:GC139 J151:GC161">
-    <cfRule type="expression" dxfId="57" priority="185">
+    <cfRule type="expression" dxfId="61" priority="185">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36490,7 +36505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133:GC133">
-    <cfRule type="expression" dxfId="56" priority="177">
+    <cfRule type="expression" dxfId="60" priority="177">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36509,7 +36524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128:GC129">
-    <cfRule type="expression" dxfId="55" priority="168">
+    <cfRule type="expression" dxfId="59" priority="168">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36528,7 +36543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:GC71">
-    <cfRule type="expression" dxfId="54" priority="160">
+    <cfRule type="expression" dxfId="58" priority="160">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36547,7 +36562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J137:GC138">
-    <cfRule type="expression" dxfId="53" priority="144">
+    <cfRule type="expression" dxfId="57" priority="144">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36566,7 +36581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J140:GC141">
-    <cfRule type="expression" dxfId="52" priority="136">
+    <cfRule type="expression" dxfId="56" priority="136">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36585,7 +36600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J144:GC144">
-    <cfRule type="expression" dxfId="51" priority="128">
+    <cfRule type="expression" dxfId="55" priority="128">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36604,7 +36619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J145:GC150">
-    <cfRule type="expression" dxfId="50" priority="120">
+    <cfRule type="expression" dxfId="54" priority="120">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36623,7 +36638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:BM73">
-    <cfRule type="expression" dxfId="49" priority="104">
+    <cfRule type="expression" dxfId="53" priority="104">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36642,7 +36657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J143:BM143">
-    <cfRule type="expression" dxfId="48" priority="96">
+    <cfRule type="expression" dxfId="52" priority="96">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36661,7 +36676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:BM127">
-    <cfRule type="expression" dxfId="47" priority="64">
+    <cfRule type="expression" dxfId="51" priority="64">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36680,7 +36695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J142:GC142">
-    <cfRule type="expression" dxfId="46" priority="72">
+    <cfRule type="expression" dxfId="50" priority="72">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36699,24 +36714,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="45" priority="48">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="44" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
       <formula>AND($D11="Low risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
       <formula>AND($D11="High risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="52" stopIfTrue="1">
       <formula>AND($D11="On track",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="53" stopIfTrue="1">
       <formula>AND($D11="Med risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="54" stopIfTrue="1">
       <formula>AND(LEN($D11)=0,J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36735,24 +36750,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="38" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
       <formula>AND($D12="Low risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
       <formula>AND($D12="High risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
       <formula>AND($D12="On track",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
       <formula>AND($D12="Med risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="46" stopIfTrue="1">
       <formula>AND(LEN($D12)=0,J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36771,24 +36786,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="37" priority="32">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
       <formula>AND($D15="Low risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
       <formula>AND($D15="High risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
       <formula>AND($D15="On track",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
       <formula>AND($D15="Med risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="38" stopIfTrue="1">
       <formula>AND(LEN($D15)=0,J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36807,46 +36822,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="27" priority="24">
+    <cfRule type="expression" dxfId="31" priority="24">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="26" stopIfTrue="1">
       <formula>AND($D16="Low risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="27" stopIfTrue="1">
       <formula>AND($D16="High risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
       <formula>AND($D16="On track",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
       <formula>AND($D16="Med risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
       <formula>AND(LEN($D16)=0,J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="21" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="19" stopIfTrue="1">
       <formula>AND($D19="Low risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="20" stopIfTrue="1">
       <formula>AND($D19="High risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>AND($D19="On track",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
       <formula>AND($D19="Med risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
       <formula>AND(LEN($D19)=0,J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36865,19 +36880,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM21">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>AND($D20="Low risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>AND($D20="High risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>AND($D20="On track",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
       <formula>AND($D20="Med risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>AND(LEN($D20)=0,J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36896,7 +36911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:GC21">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36971,36 +36986,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:BM128">
-    <cfRule type="expression" dxfId="9" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="425" stopIfTrue="1">
       <formula>AND($D146="Low risk",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="426" stopIfTrue="1">
       <formula>AND($D146="High risk",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="427" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="427" stopIfTrue="1">
       <formula>AND($D146="On track",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="428" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="428" stopIfTrue="1">
       <formula>AND($D146="Med risk",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="429" stopIfTrue="1">
       <formula>AND(LEN($D146)=0,J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146:BM150">
-    <cfRule type="expression" dxfId="4" priority="430" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="430" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=$G146,J$5&lt;=$G146+$H146-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="431" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="431" stopIfTrue="1">
       <formula>AND(#REF!="High risk",J$5&gt;=$G146,J$5&lt;=$G146+$H146-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="432" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="432" stopIfTrue="1">
       <formula>AND(#REF!="On track",J$5&gt;=$G146,J$5&lt;=$G146+$H146-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="433" stopIfTrue="1">
       <formula>AND(#REF!="Med risk",J$5&gt;=$G146,J$5&lt;=$G146+$H146-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="434" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$5&gt;=$G146,J$5&lt;=$G146+$H146-1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planning Report/application sprint planner sprint5 03.02.20.xlsx
+++ b/Planning Report/application sprint planner sprint5 03.02.20.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A1403E-51CF-482A-8406-E04D22DBB88E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA7F44-23B1-4A6F-A8A4-9E310C899482}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="1050" windowWidth="21600" windowHeight="11385" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1636,6 +1636,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1664,7 +1670,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3648,40 +3682,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -4003,10 +4003,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="106" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="105" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="104" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="103" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="1" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
@@ -4286,8 +4286,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A177" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34375,7 +34375,7 @@
     </row>
     <row r="148" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
-      <c r="B148" s="41" t="s">
+      <c r="B148" s="62" t="s">
         <v>48</v>
       </c>
       <c r="C148" s="41"/>
@@ -41492,56 +41492,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BM8 J186:BM187 J136:BM136 J154:BM154 J74:BM75 J10:BM10 J22:BM58 J61:BM70 J72:BM72 J78:BM121 J124:BM132">
-    <cfRule type="expression" dxfId="102" priority="250">
+    <cfRule type="expression" dxfId="106" priority="250">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="101" priority="256">
+    <cfRule type="expression" dxfId="105" priority="256">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:BM4">
-    <cfRule type="expression" dxfId="100" priority="252">
+    <cfRule type="expression" dxfId="104" priority="252">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BM4">
-    <cfRule type="expression" dxfId="99" priority="251">
+    <cfRule type="expression" dxfId="103" priority="251">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM123 J169:BM186 J135:BM163">
-    <cfRule type="expression" dxfId="98" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="273" stopIfTrue="1">
       <formula>AND($D8="Low risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="292" stopIfTrue="1">
       <formula>AND($D8="High risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="310" stopIfTrue="1">
       <formula>AND($D8="On track",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="311" stopIfTrue="1">
       <formula>AND($D8="Med risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="312" stopIfTrue="1">
       <formula>AND(LEN($D8)=0,J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J187:BM187">
-    <cfRule type="expression" dxfId="93" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="320" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="321" stopIfTrue="1">
       <formula>AND(#REF!="High risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="322" stopIfTrue="1">
       <formula>AND(#REF!="On track",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="323" stopIfTrue="1">
       <formula>AND(#REF!="Med risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="324" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41560,24 +41560,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="88" priority="241">
+    <cfRule type="expression" dxfId="92" priority="241">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="87" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="243" stopIfTrue="1">
       <formula>AND($D9="Low risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="244" stopIfTrue="1">
       <formula>AND($D9="High risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="245" stopIfTrue="1">
       <formula>AND($D9="On track",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="246" stopIfTrue="1">
       <formula>AND($D9="Med risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="247" stopIfTrue="1">
       <formula>AND(LEN($D9)=0,J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41596,7 +41596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76:BM77">
-    <cfRule type="expression" dxfId="82" priority="225">
+    <cfRule type="expression" dxfId="86" priority="225">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41615,7 +41615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J123:GC123">
-    <cfRule type="expression" dxfId="81" priority="216">
+    <cfRule type="expression" dxfId="85" priority="216">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41634,7 +41634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J122:BM122">
-    <cfRule type="expression" dxfId="80" priority="209">
+    <cfRule type="expression" dxfId="84" priority="209">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41653,7 +41653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:BM60">
-    <cfRule type="expression" dxfId="79" priority="201">
+    <cfRule type="expression" dxfId="83" priority="201">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41672,7 +41672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J152:GC154 J157:GC157 J169:GC185 J137:GC150">
-    <cfRule type="expression" dxfId="78" priority="185">
+    <cfRule type="expression" dxfId="82" priority="185">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41691,7 +41691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J151:GC151">
-    <cfRule type="expression" dxfId="77" priority="177">
+    <cfRule type="expression" dxfId="81" priority="177">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41710,7 +41710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134:GC135">
-    <cfRule type="expression" dxfId="76" priority="168">
+    <cfRule type="expression" dxfId="80" priority="168">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41729,7 +41729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:GC71">
-    <cfRule type="expression" dxfId="75" priority="160">
+    <cfRule type="expression" dxfId="79" priority="160">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41748,7 +41748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155:GC156">
-    <cfRule type="expression" dxfId="74" priority="144">
+    <cfRule type="expression" dxfId="78" priority="144">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41767,7 +41767,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J158:GC159">
-    <cfRule type="expression" dxfId="73" priority="136">
+    <cfRule type="expression" dxfId="77" priority="136">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41786,7 +41786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162:GC162">
-    <cfRule type="expression" dxfId="72" priority="128">
+    <cfRule type="expression" dxfId="76" priority="128">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41805,7 +41805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:GC168">
-    <cfRule type="expression" dxfId="71" priority="120">
+    <cfRule type="expression" dxfId="75" priority="120">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41824,7 +41824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73:BM73">
-    <cfRule type="expression" dxfId="70" priority="104">
+    <cfRule type="expression" dxfId="74" priority="104">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41843,7 +41843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J161:BM161">
-    <cfRule type="expression" dxfId="69" priority="96">
+    <cfRule type="expression" dxfId="73" priority="96">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41862,7 +41862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133:BM133">
-    <cfRule type="expression" dxfId="68" priority="64">
+    <cfRule type="expression" dxfId="72" priority="64">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41881,7 +41881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J160:GC160">
-    <cfRule type="expression" dxfId="67" priority="72">
+    <cfRule type="expression" dxfId="71" priority="72">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41900,24 +41900,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="66" priority="48">
+    <cfRule type="expression" dxfId="70" priority="48">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="65" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="50" stopIfTrue="1">
       <formula>AND($D11="Low risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="51" stopIfTrue="1">
       <formula>AND($D11="High risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="52" stopIfTrue="1">
       <formula>AND($D11="On track",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="53" stopIfTrue="1">
       <formula>AND($D11="Med risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="54" stopIfTrue="1">
       <formula>AND(LEN($D11)=0,J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41936,24 +41936,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="60" priority="40">
+    <cfRule type="expression" dxfId="64" priority="40">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="59" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="42" stopIfTrue="1">
       <formula>AND($D12="Low risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="43" stopIfTrue="1">
       <formula>AND($D12="High risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="44" stopIfTrue="1">
       <formula>AND($D12="On track",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="45" stopIfTrue="1">
       <formula>AND($D12="Med risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="46" stopIfTrue="1">
       <formula>AND(LEN($D12)=0,J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41972,24 +41972,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="54" priority="32">
+    <cfRule type="expression" dxfId="58" priority="32">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="53" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="34" stopIfTrue="1">
       <formula>AND($D15="Low risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="35" stopIfTrue="1">
       <formula>AND($D15="High risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
       <formula>AND($D15="On track",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="37" stopIfTrue="1">
       <formula>AND($D15="Med risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="38" stopIfTrue="1">
       <formula>AND(LEN($D15)=0,J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42008,46 +42008,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="48" priority="24">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="47" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="26" stopIfTrue="1">
       <formula>AND($D16="Low risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="27" stopIfTrue="1">
       <formula>AND($D16="High risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="28" stopIfTrue="1">
       <formula>AND($D16="On track",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="29" stopIfTrue="1">
       <formula>AND($D16="Med risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="30" stopIfTrue="1">
       <formula>AND(LEN($D16)=0,J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="42" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="19" stopIfTrue="1">
       <formula>AND($D19="Low risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="20" stopIfTrue="1">
       <formula>AND($D19="High risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="21" stopIfTrue="1">
       <formula>AND($D19="On track",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="22" stopIfTrue="1">
       <formula>AND($D19="Med risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="23" stopIfTrue="1">
       <formula>AND(LEN($D19)=0,J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="41" priority="16">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42066,19 +42066,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM21">
-    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
       <formula>AND($D20="Low risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
       <formula>AND($D20="High risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
       <formula>AND($D20="On track",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
       <formula>AND($D20="Med risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="15" stopIfTrue="1">
       <formula>AND(LEN($D20)=0,J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42097,7 +42097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:GC21">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="35" priority="8">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42172,87 +42172,87 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164:BM168">
-    <cfRule type="expression" dxfId="30" priority="430" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="430" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=$G164,J$5&lt;=$G164+$H164-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="431" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="431" stopIfTrue="1">
       <formula>AND(#REF!="High risk",J$5&gt;=$G164,J$5&lt;=$G164+$H164-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="432" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="432" stopIfTrue="1">
       <formula>AND(#REF!="On track",J$5&gt;=$G164,J$5&lt;=$G164+$H164-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="433" stopIfTrue="1">
       <formula>AND(#REF!="Med risk",J$5&gt;=$G164,J$5&lt;=$G164+$H164-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="434" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$5&gt;=$G164,J$5&lt;=$G164+$H164-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J124:BM124">
-    <cfRule type="expression" dxfId="25" priority="501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="501" stopIfTrue="1">
       <formula>AND($D164="Low risk",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="502" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="502" stopIfTrue="1">
       <formula>AND($D164="High risk",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="503" stopIfTrue="1">
       <formula>AND($D164="On track",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="504" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="504" stopIfTrue="1">
       <formula>AND($D164="Med risk",J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="505" stopIfTrue="1">
       <formula>AND(LEN($D164)=0,J$5&gt;=$G124,J$5&lt;=$G124+$H124-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131:BM134">
-    <cfRule type="expression" dxfId="20" priority="781" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="781" stopIfTrue="1">
       <formula>AND($D165="Low risk",J$5&gt;=$G131,J$5&lt;=$G131+$H131-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="782" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="782" stopIfTrue="1">
       <formula>AND($D165="High risk",J$5&gt;=$G131,J$5&lt;=$G131+$H131-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="783" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="783" stopIfTrue="1">
       <formula>AND($D165="On track",J$5&gt;=$G131,J$5&lt;=$G131+$H131-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="784" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="784" stopIfTrue="1">
       <formula>AND($D165="Med risk",J$5&gt;=$G131,J$5&lt;=$G131+$H131-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="785" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="785" stopIfTrue="1">
       <formula>AND(LEN($D165)=0,J$5&gt;=$G131,J$5&lt;=$G131+$H131-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:BM130">
-    <cfRule type="expression" dxfId="15" priority="796" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="796" stopIfTrue="1">
       <formula>AND($D162="Low risk",J$5&gt;=$G127,J$5&lt;=$G127+$H127-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="797" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="797" stopIfTrue="1">
       <formula>AND($D162="High risk",J$5&gt;=$G127,J$5&lt;=$G127+$H127-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="798" stopIfTrue="1">
       <formula>AND($D162="On track",J$5&gt;=$G127,J$5&lt;=$G127+$H127-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="799" stopIfTrue="1">
       <formula>AND($D162="Med risk",J$5&gt;=$G127,J$5&lt;=$G127+$H127-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="800" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="800" stopIfTrue="1">
       <formula>AND(LEN($D162)=0,J$5&gt;=$G127,J$5&lt;=$G127+$H127-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J125:BM126">
-    <cfRule type="expression" dxfId="10" priority="823" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="823" stopIfTrue="1">
       <formula>AND($D161="Low risk",J$5&gt;=$G125,J$5&lt;=$G125+$H125-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="824" stopIfTrue="1">
       <formula>AND($D161="High risk",J$5&gt;=$G125,J$5&lt;=$G125+$H125-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="825" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="825" stopIfTrue="1">
       <formula>AND($D161="On track",J$5&gt;=$G125,J$5&lt;=$G125+$H125-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="826" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="826" stopIfTrue="1">
       <formula>AND($D161="Med risk",J$5&gt;=$G125,J$5&lt;=$G125+$H125-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="827" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="827" stopIfTrue="1">
       <formula>AND(LEN($D161)=0,J$5&gt;=$G125,J$5&lt;=$G125+$H125-1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planning Report/application sprint planner sprint5 03.02.20.xlsx
+++ b/Planning Report/application sprint planner sprint5 03.02.20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA7F44-23B1-4A6F-A8A4-9E310C899482}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D5043-6FA9-45DA-A6B3-6899AAE140E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1050" windowWidth="21600" windowHeight="11385" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="690" windowWidth="21600" windowHeight="11385" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="152">
   <si>
     <t>Create a Gantt Chart in this worksheet.
 Enter title of this project in cell B1. 
@@ -559,7 +559,7 @@
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +800,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3" tint="-0.24994659260841701"/>
       <name val="Calibri"/>
@@ -1345,7 +1353,7 @@
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1569,6 +1577,9 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
@@ -1636,10 +1647,38 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1668,34 +1707,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4003,10 +4014,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="9" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="8" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="6" totalsRowDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="1" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
@@ -4286,8 +4297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AU140" sqref="AU140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28287,7 +28298,9 @@
     </row>
     <row r="122" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
-      <c r="B122" s="69"/>
+      <c r="B122" s="85" t="s">
+        <v>49</v>
+      </c>
       <c r="C122" s="53"/>
       <c r="D122" s="34"/>
       <c r="E122" s="34"/>
@@ -32228,13 +32241,19 @@
         <v>105</v>
       </c>
       <c r="C139" s="41"/>
-      <c r="D139" s="34"/>
+      <c r="D139" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E139" s="34">
         <v>0.5</v>
       </c>
       <c r="F139" s="59"/>
-      <c r="G139" s="71"/>
-      <c r="H139" s="72"/>
+      <c r="G139" s="32">
+        <v>43892</v>
+      </c>
+      <c r="H139" s="72">
+        <v>1</v>
+      </c>
       <c r="I139" s="26"/>
       <c r="J139" s="38" t="str">
         <f t="shared" ca="1" si="82"/>
@@ -33184,13 +33203,19 @@
         <v>151</v>
       </c>
       <c r="C143" s="41"/>
-      <c r="D143" s="34"/>
+      <c r="D143" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E143" s="34">
         <v>2</v>
       </c>
       <c r="F143" s="59"/>
-      <c r="G143" s="71"/>
-      <c r="H143" s="72"/>
+      <c r="G143" s="32">
+        <v>43895</v>
+      </c>
+      <c r="H143" s="72">
+        <v>1</v>
+      </c>
       <c r="I143" s="26"/>
       <c r="J143" s="38" t="str">
         <f t="shared" ca="1" si="82"/>
@@ -33423,13 +33448,19 @@
         <v>133</v>
       </c>
       <c r="C144" s="41"/>
-      <c r="D144" s="34"/>
+      <c r="D144" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E144" s="34">
         <v>3</v>
       </c>
       <c r="F144" s="59"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="72"/>
+      <c r="G144" s="71">
+        <v>43899</v>
+      </c>
+      <c r="H144" s="72">
+        <v>1</v>
+      </c>
       <c r="I144" s="26"/>
       <c r="J144" s="38" t="str">
         <f t="shared" ca="1" si="82"/>
@@ -33662,13 +33693,19 @@
         <v>148</v>
       </c>
       <c r="C145" s="41"/>
-      <c r="D145" s="34"/>
+      <c r="D145" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E145" s="34">
         <v>6</v>
       </c>
       <c r="F145" s="59"/>
-      <c r="G145" s="71"/>
-      <c r="H145" s="72"/>
+      <c r="G145" s="32">
+        <v>43893</v>
+      </c>
+      <c r="H145" s="72">
+        <v>1</v>
+      </c>
       <c r="I145" s="26"/>
       <c r="J145" s="38" t="str">
         <f t="shared" ca="1" si="82"/>
@@ -33901,13 +33938,19 @@
         <v>147</v>
       </c>
       <c r="C146" s="41"/>
-      <c r="D146" s="34"/>
+      <c r="D146" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E146" s="34">
         <v>2</v>
       </c>
       <c r="F146" s="59"/>
-      <c r="G146" s="71"/>
-      <c r="H146" s="72"/>
+      <c r="G146" s="32">
+        <v>43893</v>
+      </c>
+      <c r="H146" s="72">
+        <v>1</v>
+      </c>
       <c r="I146" s="26"/>
       <c r="J146" s="38" t="str">
         <f t="shared" ca="1" si="82"/>
@@ -34379,13 +34422,19 @@
         <v>48</v>
       </c>
       <c r="C148" s="41"/>
-      <c r="D148" s="34"/>
+      <c r="D148" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E148" s="34">
         <v>2</v>
       </c>
       <c r="F148" s="59"/>
-      <c r="G148" s="71"/>
-      <c r="H148" s="72"/>
+      <c r="G148" s="32">
+        <v>43895</v>
+      </c>
+      <c r="H148" s="72">
+        <v>1</v>
+      </c>
       <c r="I148" s="26"/>
       <c r="J148" s="38" t="str">
         <f t="shared" ca="1" si="82"/>
@@ -35333,7 +35382,7 @@
       <c r="E152" s="34"/>
       <c r="F152" s="31"/>
       <c r="G152" s="32">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="H152" s="33">
         <v>14</v>
@@ -35574,7 +35623,7 @@
       <c r="E153" s="34"/>
       <c r="F153" s="31"/>
       <c r="G153" s="32">
-        <v>43927</v>
+        <v>43934</v>
       </c>
       <c r="H153" s="33">
         <v>14</v>

--- a/Planning Report/application sprint planner sprint5 03.02.20.xlsx
+++ b/Planning Report/application sprint planner sprint5 03.02.20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D5043-6FA9-45DA-A6B3-6899AAE140E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D59B2-CF20-401C-8241-6F8775B911B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="690" windowWidth="21600" windowHeight="11385" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1549,6 +1549,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,9 +1579,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1647,6 +1647,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1675,15 +1681,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1707,6 +1704,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4014,10 +4014,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="9" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="8" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="1" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
@@ -4297,8 +4297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AU140" sqref="AU140"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AX142" sqref="AX142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4367,39 +4367,39 @@
       <c r="D2" s="18"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="82" t="s">
+      <c r="J2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="O2" s="83" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="O2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="84" t="s">
+      <c r="T2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
       <c r="X2" s="20"/>
-      <c r="Y2" s="75" t="s">
+      <c r="Y2" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
       <c r="AC2" s="20"/>
-      <c r="AD2" s="76" t="s">
+      <c r="AD2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
     </row>
     <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -4410,25 +4410,25 @@
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="80">
+      <c r="F3" s="79"/>
+      <c r="G3" s="81">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>43773</v>
       </c>
-      <c r="H3" s="81"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="44">
         <v>85</v>
       </c>
@@ -4517,14 +4517,14 @@
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="46">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>43858</v>
@@ -28298,7 +28298,7 @@
     </row>
     <row r="122" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
-      <c r="B122" s="85" t="s">
+      <c r="B122" s="75" t="s">
         <v>49</v>
       </c>
       <c r="C122" s="53"/>

--- a/Planning Report/application sprint planner sprint5 03.02.20.xlsx
+++ b/Planning Report/application sprint planner sprint5 03.02.20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D59B2-CF20-401C-8241-6F8775B911B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3DE43E-FC6C-4081-B5A1-7A6A255E172C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1647,10 +1647,38 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1679,34 +1707,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4014,10 +4014,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="9" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="8" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="6" totalsRowDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="1" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
@@ -4297,8 +4297,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AX142" sqref="AX142"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AF140" sqref="AF140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32969,8 +32969,12 @@
         <v>4</v>
       </c>
       <c r="F142" s="59"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="72"/>
+      <c r="G142" s="71">
+        <v>43899</v>
+      </c>
+      <c r="H142" s="72">
+        <v>1</v>
+      </c>
       <c r="I142" s="26"/>
       <c r="J142" s="38" t="str">
         <f t="shared" ca="1" si="82"/>

--- a/Planning Report/application sprint planner sprint5 03.02.20.xlsx
+++ b/Planning Report/application sprint planner sprint5 03.02.20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACE1DA7-740A-4AAF-92EB-D9D4E765975E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6FDDC1-CEB3-4911-8B51-92EC19EBE044}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="0" windowWidth="21600" windowHeight="11385" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1662,6 +1662,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1690,15 +1696,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1722,6 +1719,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4012,10 +4012,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="9" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="8" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="1" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
@@ -4295,8 +4295,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM202"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AF149" sqref="AF149"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AA163" sqref="AA163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
